--- a/convolution for profiler/Dataplacement-DongLi.xlsx
+++ b/convolution for profiler/Dataplacement-DongLi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dragonicebox\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/convolution for profiler/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5080" yWindow="1160" windowWidth="25520" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kernel1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,12 @@
     <definedName name="convolution_prof_awk_2" localSheetId="1">kernel2!$B$17:$DH$17</definedName>
     <definedName name="convolution_prof_awk_3" localSheetId="1">kernel2!$B$17:$IO$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5476,7 +5481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="367">
   <si>
     <t>S_Data</t>
   </si>
@@ -6567,13 +6572,47 @@
   </si>
   <si>
     <t>111.51GB/s</t>
+  </si>
+  <si>
+    <r>
+      <t>Remarks:
+There are two kernels,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>convolution_row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and convolution_column,in each file.  
+The first half of the metrics and events are convolution column, while the second half are convolution row.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/21812264/profiling-l2-cache-on-cuda-compute-capability-3-x-with-nvprof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d </t>
+  </si>
+  <si>
+    <t>L1 caching in Kepler GPUs is reserved only for local memory accesses, such as register spills and stack data. Global loads are cached in L2 only (or in the Read-Only Data Cache)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6581,13 +6620,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF595959"/>
+      <name val="Times,Bold"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6599,27 +6670,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6636,23 +6728,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_prof_awk" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_prof_awk_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_prof_awk_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convolution_prof_awk_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convolution_prof_awk_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_prof_awk_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_prof_awk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_prof" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convolution_prof_awk" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="9_prof_awk_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6660,27 +6752,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="9_prof_awk_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convolution_prof_awk" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_prof" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_prof_awk_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_prof_awk_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convolution_prof_awk_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convolution_prof_awk_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_prof_awk_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_prof_awk" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_prof_awk_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="9_prof_awk" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_prof" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6688,11 +6780,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_prof_awk_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_prof_awk" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convolution_prof_awk_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="9_prof_awk_2" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6700,15 +6792,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="9_prof_awk_2" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="convolution_prof_awk_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_prof" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="9_prof_awk" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_prof_awk_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_prof_awk" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6988,199 +7080,199 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9.19921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
+    <col min="10" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="1" customWidth="1"/>
     <col min="17" max="20" width="10.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.19921875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.1640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="1" customWidth="1"/>
-    <col min="23" max="24" width="8.19921875" style="1" customWidth="1"/>
+    <col min="23" max="24" width="8.1640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="7" style="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="1" customWidth="1"/>
     <col min="27" max="27" width="10.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.296875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="1" customWidth="1"/>
     <col min="29" max="29" width="6" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.19921875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.296875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.19921875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.19921875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="4.1640625" style="1" customWidth="1"/>
     <col min="34" max="34" width="7" style="1" customWidth="1"/>
-    <col min="35" max="36" width="2.19921875" style="1" customWidth="1"/>
-    <col min="37" max="39" width="9.19921875" style="1" customWidth="1"/>
-    <col min="40" max="42" width="2.19921875" style="1" customWidth="1"/>
-    <col min="43" max="45" width="8.19921875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="7.19921875" style="1" customWidth="1"/>
-    <col min="47" max="49" width="2.19921875" style="1" customWidth="1"/>
-    <col min="50" max="53" width="8.19921875" style="1" customWidth="1"/>
-    <col min="54" max="55" width="10.296875" style="1" customWidth="1"/>
+    <col min="35" max="36" width="2.1640625" style="1" customWidth="1"/>
+    <col min="37" max="39" width="9.1640625" style="1" customWidth="1"/>
+    <col min="40" max="42" width="2.1640625" style="1" customWidth="1"/>
+    <col min="43" max="45" width="8.1640625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="7.1640625" style="1" customWidth="1"/>
+    <col min="47" max="49" width="2.1640625" style="1" customWidth="1"/>
+    <col min="50" max="53" width="8.1640625" style="1" customWidth="1"/>
+    <col min="54" max="55" width="10.33203125" style="1" customWidth="1"/>
     <col min="56" max="59" width="10.5" style="1" customWidth="1"/>
-    <col min="60" max="61" width="10.296875" style="1" customWidth="1"/>
+    <col min="60" max="61" width="10.33203125" style="1" customWidth="1"/>
     <col min="62" max="62" width="7" style="1" customWidth="1"/>
-    <col min="63" max="63" width="7.19921875" style="1" customWidth="1"/>
-    <col min="64" max="64" width="6.19921875" style="1" customWidth="1"/>
-    <col min="65" max="65" width="9.19921875" style="1" customWidth="1"/>
-    <col min="66" max="66" width="8.19921875" style="1" customWidth="1"/>
-    <col min="67" max="67" width="10.19921875" style="1" customWidth="1"/>
-    <col min="68" max="69" width="2.19921875" style="1" customWidth="1"/>
-    <col min="70" max="70" width="10.19921875" style="1" customWidth="1"/>
-    <col min="71" max="75" width="2.19921875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="7.1640625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="6.1640625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="9.1640625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="8.1640625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1640625" style="1" customWidth="1"/>
+    <col min="68" max="69" width="2.1640625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="10.1640625" style="1" customWidth="1"/>
+    <col min="71" max="75" width="2.1640625" style="1" customWidth="1"/>
     <col min="76" max="79" width="6" style="1" customWidth="1"/>
     <col min="80" max="80" width="7" style="1" customWidth="1"/>
     <col min="81" max="81" width="6" style="1" customWidth="1"/>
-    <col min="82" max="83" width="2.69921875" style="1" customWidth="1"/>
-    <col min="84" max="84" width="2.19921875" style="1" customWidth="1"/>
-    <col min="85" max="85" width="2.69921875" style="1" customWidth="1"/>
-    <col min="86" max="86" width="2.19921875" style="1" customWidth="1"/>
-    <col min="87" max="89" width="2.69921875" style="1" customWidth="1"/>
-    <col min="90" max="90" width="2.19921875" style="1" customWidth="1"/>
-    <col min="91" max="93" width="9.19921875" style="1" customWidth="1"/>
-    <col min="94" max="94" width="10.296875" style="1" customWidth="1"/>
-    <col min="95" max="95" width="2.19921875" style="1" customWidth="1"/>
+    <col min="82" max="83" width="2.6640625" style="1" customWidth="1"/>
+    <col min="84" max="84" width="2.1640625" style="1" customWidth="1"/>
+    <col min="85" max="85" width="2.6640625" style="1" customWidth="1"/>
+    <col min="86" max="86" width="2.1640625" style="1" customWidth="1"/>
+    <col min="87" max="89" width="2.6640625" style="1" customWidth="1"/>
+    <col min="90" max="90" width="2.1640625" style="1" customWidth="1"/>
+    <col min="91" max="93" width="9.1640625" style="1" customWidth="1"/>
+    <col min="94" max="94" width="10.33203125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="2.1640625" style="1" customWidth="1"/>
     <col min="96" max="96" width="6" style="1" customWidth="1"/>
-    <col min="97" max="97" width="10.296875" style="1" customWidth="1"/>
+    <col min="97" max="97" width="10.33203125" style="1" customWidth="1"/>
     <col min="98" max="98" width="6" style="1" customWidth="1"/>
-    <col min="99" max="99" width="10.296875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="10.19921875" style="1" customWidth="1"/>
-    <col min="101" max="101" width="2.19921875" style="1" customWidth="1"/>
-    <col min="102" max="102" width="9.19921875" style="1" customWidth="1"/>
-    <col min="103" max="103" width="2.19921875" style="1" customWidth="1"/>
-    <col min="104" max="104" width="8.19921875" style="1" customWidth="1"/>
-    <col min="105" max="105" width="10.19921875" style="1" customWidth="1"/>
-    <col min="106" max="106" width="9.19921875" style="1" customWidth="1"/>
-    <col min="107" max="110" width="2.19921875" style="1" customWidth="1"/>
-    <col min="111" max="112" width="8.19921875" style="1" customWidth="1"/>
-    <col min="113" max="113" width="2.19921875" style="1" customWidth="1"/>
+    <col min="99" max="99" width="10.33203125" style="1" customWidth="1"/>
+    <col min="100" max="100" width="10.1640625" style="1" customWidth="1"/>
+    <col min="101" max="101" width="2.1640625" style="1" customWidth="1"/>
+    <col min="102" max="102" width="9.1640625" style="1" customWidth="1"/>
+    <col min="103" max="103" width="2.1640625" style="1" customWidth="1"/>
+    <col min="104" max="104" width="8.1640625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="10.1640625" style="1" customWidth="1"/>
+    <col min="106" max="106" width="9.1640625" style="1" customWidth="1"/>
+    <col min="107" max="110" width="2.1640625" style="1" customWidth="1"/>
+    <col min="111" max="112" width="8.1640625" style="1" customWidth="1"/>
+    <col min="113" max="113" width="2.1640625" style="1" customWidth="1"/>
     <col min="114" max="114" width="10.5" style="1" customWidth="1"/>
-    <col min="115" max="115" width="2.19921875" style="1" customWidth="1"/>
-    <col min="116" max="116" width="7.19921875" style="1" customWidth="1"/>
+    <col min="115" max="115" width="2.1640625" style="1" customWidth="1"/>
+    <col min="116" max="116" width="7.1640625" style="1" customWidth="1"/>
     <col min="117" max="117" width="10.5" style="1" customWidth="1"/>
     <col min="118" max="118" width="7" style="1" customWidth="1"/>
     <col min="119" max="121" width="6" style="1" customWidth="1"/>
     <col min="122" max="123" width="7" style="1" customWidth="1"/>
-    <col min="124" max="124" width="9.19921875" style="1" customWidth="1"/>
-    <col min="125" max="125" width="10.296875" style="1" customWidth="1"/>
-    <col min="126" max="126" width="24.59765625" style="1" customWidth="1"/>
+    <col min="124" max="124" width="9.1640625" style="1" customWidth="1"/>
+    <col min="125" max="125" width="10.33203125" style="1" customWidth="1"/>
+    <col min="126" max="126" width="24.6640625" style="1" customWidth="1"/>
     <col min="127" max="127" width="6" style="1" customWidth="1"/>
     <col min="128" max="128" width="7" style="1" customWidth="1"/>
-    <col min="129" max="130" width="9.19921875" style="1" customWidth="1"/>
+    <col min="129" max="130" width="9.1640625" style="1" customWidth="1"/>
     <col min="131" max="132" width="10.5" style="1" customWidth="1"/>
     <col min="133" max="133" width="7" style="1" customWidth="1"/>
-    <col min="134" max="137" width="9.19921875" style="1" customWidth="1"/>
-    <col min="138" max="138" width="13.796875" style="1" customWidth="1"/>
-    <col min="139" max="139" width="12.796875" style="1" customWidth="1"/>
-    <col min="140" max="140" width="10.296875" style="1" customWidth="1"/>
+    <col min="134" max="137" width="9.1640625" style="1" customWidth="1"/>
+    <col min="138" max="138" width="13.83203125" style="1" customWidth="1"/>
+    <col min="139" max="139" width="12.83203125" style="1" customWidth="1"/>
+    <col min="140" max="140" width="10.33203125" style="1" customWidth="1"/>
     <col min="141" max="142" width="10.5" style="1" customWidth="1"/>
-    <col min="143" max="143" width="21.796875" style="1" customWidth="1"/>
+    <col min="143" max="143" width="21.83203125" style="1" customWidth="1"/>
     <col min="144" max="144" width="10.5" style="1" customWidth="1"/>
-    <col min="145" max="145" width="2.19921875" style="1" customWidth="1"/>
+    <col min="145" max="145" width="2.1640625" style="1" customWidth="1"/>
     <col min="146" max="146" width="7" style="1" customWidth="1"/>
-    <col min="147" max="148" width="8.19921875" style="1" customWidth="1"/>
+    <col min="147" max="148" width="8.1640625" style="1" customWidth="1"/>
     <col min="149" max="149" width="7" style="1" customWidth="1"/>
     <col min="150" max="150" width="6" style="1" customWidth="1"/>
     <col min="151" max="151" width="10.5" style="1" customWidth="1"/>
-    <col min="152" max="152" width="10.296875" style="1" customWidth="1"/>
+    <col min="152" max="152" width="10.33203125" style="1" customWidth="1"/>
     <col min="153" max="153" width="6" style="1" customWidth="1"/>
-    <col min="154" max="154" width="8.19921875" style="1" customWidth="1"/>
-    <col min="155" max="155" width="10.296875" style="1" customWidth="1"/>
-    <col min="156" max="156" width="9.19921875" style="1" customWidth="1"/>
-    <col min="157" max="157" width="11.19921875" style="1" customWidth="1"/>
+    <col min="154" max="154" width="8.1640625" style="1" customWidth="1"/>
+    <col min="155" max="155" width="10.33203125" style="1" customWidth="1"/>
+    <col min="156" max="156" width="9.1640625" style="1" customWidth="1"/>
+    <col min="157" max="157" width="11.1640625" style="1" customWidth="1"/>
     <col min="158" max="158" width="7" style="1" customWidth="1"/>
-    <col min="159" max="160" width="2.19921875" style="1" customWidth="1"/>
-    <col min="161" max="163" width="9.19921875" style="1" customWidth="1"/>
-    <col min="164" max="166" width="2.19921875" style="1" customWidth="1"/>
-    <col min="167" max="169" width="8.19921875" style="1" customWidth="1"/>
-    <col min="170" max="170" width="7.19921875" style="1" customWidth="1"/>
-    <col min="171" max="173" width="2.19921875" style="1" customWidth="1"/>
-    <col min="174" max="177" width="8.19921875" style="1" customWidth="1"/>
-    <col min="178" max="179" width="10.296875" style="1" customWidth="1"/>
+    <col min="159" max="160" width="2.1640625" style="1" customWidth="1"/>
+    <col min="161" max="163" width="9.1640625" style="1" customWidth="1"/>
+    <col min="164" max="166" width="2.1640625" style="1" customWidth="1"/>
+    <col min="167" max="169" width="8.1640625" style="1" customWidth="1"/>
+    <col min="170" max="170" width="7.1640625" style="1" customWidth="1"/>
+    <col min="171" max="173" width="2.1640625" style="1" customWidth="1"/>
+    <col min="174" max="177" width="8.1640625" style="1" customWidth="1"/>
+    <col min="178" max="179" width="10.33203125" style="1" customWidth="1"/>
     <col min="180" max="183" width="10.5" style="1" customWidth="1"/>
-    <col min="184" max="185" width="10.296875" style="1" customWidth="1"/>
+    <col min="184" max="185" width="10.33203125" style="1" customWidth="1"/>
     <col min="186" max="186" width="7" style="1" customWidth="1"/>
-    <col min="187" max="188" width="7.19921875" style="1" customWidth="1"/>
-    <col min="189" max="189" width="9.19921875" style="1" customWidth="1"/>
-    <col min="190" max="190" width="8.19921875" style="1" customWidth="1"/>
-    <col min="191" max="191" width="10.19921875" style="1" customWidth="1"/>
-    <col min="192" max="193" width="2.19921875" style="1" customWidth="1"/>
-    <col min="194" max="194" width="10.19921875" style="1" customWidth="1"/>
-    <col min="195" max="199" width="2.19921875" style="1" customWidth="1"/>
+    <col min="187" max="188" width="7.1640625" style="1" customWidth="1"/>
+    <col min="189" max="189" width="9.1640625" style="1" customWidth="1"/>
+    <col min="190" max="190" width="8.1640625" style="1" customWidth="1"/>
+    <col min="191" max="191" width="10.1640625" style="1" customWidth="1"/>
+    <col min="192" max="193" width="2.1640625" style="1" customWidth="1"/>
+    <col min="194" max="194" width="10.1640625" style="1" customWidth="1"/>
+    <col min="195" max="199" width="2.1640625" style="1" customWidth="1"/>
     <col min="200" max="205" width="6" style="1" customWidth="1"/>
-    <col min="206" max="207" width="2.69921875" style="1" customWidth="1"/>
-    <col min="208" max="208" width="2.19921875" style="1" customWidth="1"/>
-    <col min="209" max="209" width="2.69921875" style="1" customWidth="1"/>
-    <col min="210" max="210" width="2.19921875" style="1" customWidth="1"/>
-    <col min="211" max="213" width="2.69921875" style="1" customWidth="1"/>
-    <col min="214" max="214" width="2.19921875" style="1" customWidth="1"/>
-    <col min="215" max="217" width="9.19921875" style="1" customWidth="1"/>
-    <col min="218" max="218" width="10.296875" style="1" customWidth="1"/>
-    <col min="219" max="219" width="2.19921875" style="1" customWidth="1"/>
+    <col min="206" max="207" width="2.6640625" style="1" customWidth="1"/>
+    <col min="208" max="208" width="2.1640625" style="1" customWidth="1"/>
+    <col min="209" max="209" width="2.6640625" style="1" customWidth="1"/>
+    <col min="210" max="210" width="2.1640625" style="1" customWidth="1"/>
+    <col min="211" max="213" width="2.6640625" style="1" customWidth="1"/>
+    <col min="214" max="214" width="2.1640625" style="1" customWidth="1"/>
+    <col min="215" max="217" width="9.1640625" style="1" customWidth="1"/>
+    <col min="218" max="218" width="10.33203125" style="1" customWidth="1"/>
+    <col min="219" max="219" width="2.1640625" style="1" customWidth="1"/>
     <col min="220" max="220" width="6" style="1" customWidth="1"/>
-    <col min="221" max="221" width="10.296875" style="1" customWidth="1"/>
+    <col min="221" max="221" width="10.33203125" style="1" customWidth="1"/>
     <col min="222" max="222" width="6" style="1" customWidth="1"/>
-    <col min="223" max="223" width="10.296875" style="1" customWidth="1"/>
-    <col min="224" max="224" width="10.19921875" style="1" customWidth="1"/>
-    <col min="225" max="225" width="2.19921875" style="1" customWidth="1"/>
-    <col min="226" max="226" width="9.19921875" style="1" customWidth="1"/>
-    <col min="227" max="227" width="2.19921875" style="1" customWidth="1"/>
-    <col min="228" max="228" width="8.19921875" style="1" customWidth="1"/>
-    <col min="229" max="229" width="10.19921875" style="1" customWidth="1"/>
-    <col min="230" max="230" width="9.19921875" style="1" customWidth="1"/>
-    <col min="231" max="234" width="2.19921875" style="1" customWidth="1"/>
-    <col min="235" max="236" width="8.19921875" style="1" customWidth="1"/>
-    <col min="237" max="237" width="2.19921875" style="1" customWidth="1"/>
+    <col min="223" max="223" width="10.33203125" style="1" customWidth="1"/>
+    <col min="224" max="224" width="10.1640625" style="1" customWidth="1"/>
+    <col min="225" max="225" width="2.1640625" style="1" customWidth="1"/>
+    <col min="226" max="226" width="9.1640625" style="1" customWidth="1"/>
+    <col min="227" max="227" width="2.1640625" style="1" customWidth="1"/>
+    <col min="228" max="228" width="8.1640625" style="1" customWidth="1"/>
+    <col min="229" max="229" width="10.1640625" style="1" customWidth="1"/>
+    <col min="230" max="230" width="9.1640625" style="1" customWidth="1"/>
+    <col min="231" max="234" width="2.1640625" style="1" customWidth="1"/>
+    <col min="235" max="236" width="8.1640625" style="1" customWidth="1"/>
+    <col min="237" max="237" width="2.1640625" style="1" customWidth="1"/>
     <col min="238" max="238" width="10.5" style="1" customWidth="1"/>
-    <col min="239" max="239" width="2.19921875" style="1" customWidth="1"/>
-    <col min="240" max="240" width="8.19921875" style="1" customWidth="1"/>
+    <col min="239" max="239" width="2.1640625" style="1" customWidth="1"/>
+    <col min="240" max="240" width="8.1640625" style="1" customWidth="1"/>
     <col min="241" max="241" width="10.5" style="1" customWidth="1"/>
     <col min="242" max="242" width="7" style="1" customWidth="1"/>
     <col min="243" max="245" width="6" style="1" customWidth="1"/>
     <col min="246" max="247" width="7" style="1" customWidth="1"/>
-    <col min="248" max="248" width="10.19921875" style="1" customWidth="1"/>
-    <col min="249" max="249" width="10.296875" style="1" customWidth="1"/>
-    <col min="250" max="251" width="9.19921875" style="1" customWidth="1"/>
-    <col min="252" max="252" width="8.19921875" style="1" customWidth="1"/>
-    <col min="253" max="253" width="10.19921875" style="1" customWidth="1"/>
-    <col min="254" max="254" width="8.19921875" style="1" customWidth="1"/>
-    <col min="255" max="255" width="7.19921875" style="1" customWidth="1"/>
-    <col min="256" max="257" width="2.19921875" style="1" customWidth="1"/>
-    <col min="258" max="258" width="8.19921875" style="1" customWidth="1"/>
-    <col min="259" max="259" width="7.19921875" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.19921875" style="1" customWidth="1"/>
-    <col min="261" max="261" width="11.19921875" style="1" customWidth="1"/>
-    <col min="262" max="262" width="5.19921875" style="1" customWidth="1"/>
-    <col min="263" max="263" width="10.19921875" style="1" customWidth="1"/>
-    <col min="264" max="269" width="2.19921875" style="1" customWidth="1"/>
-    <col min="270" max="270" width="8.19921875" style="1" customWidth="1"/>
-    <col min="271" max="271" width="7.19921875" style="1" customWidth="1"/>
-    <col min="272" max="272" width="8.19921875" style="1" customWidth="1"/>
-    <col min="273" max="275" width="7.19921875" style="1" customWidth="1"/>
-    <col min="276" max="277" width="2.19921875" style="1" customWidth="1"/>
-    <col min="278" max="280" width="8.19921875" style="1" customWidth="1"/>
-    <col min="281" max="281" width="26.796875" style="1" customWidth="1"/>
-    <col min="282" max="282" width="9.796875" style="1" customWidth="1"/>
+    <col min="248" max="248" width="10.1640625" style="1" customWidth="1"/>
+    <col min="249" max="249" width="10.33203125" style="1" customWidth="1"/>
+    <col min="250" max="251" width="9.1640625" style="1" customWidth="1"/>
+    <col min="252" max="252" width="8.1640625" style="1" customWidth="1"/>
+    <col min="253" max="253" width="10.1640625" style="1" customWidth="1"/>
+    <col min="254" max="254" width="8.1640625" style="1" customWidth="1"/>
+    <col min="255" max="255" width="7.1640625" style="1" customWidth="1"/>
+    <col min="256" max="257" width="2.1640625" style="1" customWidth="1"/>
+    <col min="258" max="258" width="8.1640625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="7.1640625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.1640625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="11.1640625" style="1" customWidth="1"/>
+    <col min="262" max="262" width="5.1640625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="10.1640625" style="1" customWidth="1"/>
+    <col min="264" max="269" width="2.1640625" style="1" customWidth="1"/>
+    <col min="270" max="270" width="8.1640625" style="1" customWidth="1"/>
+    <col min="271" max="271" width="7.1640625" style="1" customWidth="1"/>
+    <col min="272" max="272" width="8.1640625" style="1" customWidth="1"/>
+    <col min="273" max="275" width="7.1640625" style="1" customWidth="1"/>
+    <col min="276" max="277" width="2.1640625" style="1" customWidth="1"/>
+    <col min="278" max="280" width="8.1640625" style="1" customWidth="1"/>
+    <col min="281" max="281" width="26.83203125" style="1" customWidth="1"/>
+    <col min="282" max="282" width="9.83203125" style="1" customWidth="1"/>
     <col min="283" max="283" width="18.5" style="1" customWidth="1"/>
-    <col min="284" max="285" width="2.19921875" style="1" customWidth="1"/>
-    <col min="286" max="287" width="4.19921875" style="1" customWidth="1"/>
-    <col min="288" max="288" width="6.19921875" style="1" customWidth="1"/>
-    <col min="289" max="289" width="8.19921875" style="1" customWidth="1"/>
-    <col min="290" max="290" width="4.19921875" style="1" customWidth="1"/>
-    <col min="291" max="291" width="7.19921875" style="1" customWidth="1"/>
-    <col min="292" max="292" width="4.19921875" style="1" customWidth="1"/>
-    <col min="293" max="293" width="80.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="294" max="16384" width="10.796875" style="1"/>
+    <col min="284" max="285" width="2.1640625" style="1" customWidth="1"/>
+    <col min="286" max="287" width="4.1640625" style="1" customWidth="1"/>
+    <col min="288" max="288" width="6.1640625" style="1" customWidth="1"/>
+    <col min="289" max="289" width="8.1640625" style="1" customWidth="1"/>
+    <col min="290" max="290" width="4.1640625" style="1" customWidth="1"/>
+    <col min="291" max="291" width="7.1640625" style="1" customWidth="1"/>
+    <col min="292" max="292" width="4.1640625" style="1" customWidth="1"/>
+    <col min="293" max="293" width="80.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="294" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>355</v>
       </c>
@@ -7197,7 +7289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>358</v>
       </c>
@@ -7214,7 +7306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>359</v>
       </c>
@@ -7231,7 +7323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>360</v>
       </c>
@@ -7248,7 +7340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -7265,12 +7357,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:283" s="5" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:283" s="11" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:283" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:283" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>356</v>
       </c>
@@ -7839,7 +7931,7 @@
       <c r="JV8"/>
       <c r="JW8"/>
     </row>
-    <row r="9" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>358</v>
       </c>
@@ -8267,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>359</v>
       </c>
@@ -8695,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>360</v>
       </c>
@@ -9123,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -9551,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:283" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:283" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>356</v>
       </c>
@@ -10052,7 +10144,7 @@
       <c r="IN14"/>
       <c r="IO14"/>
     </row>
-    <row r="15" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>358</v>
       </c>
@@ -10457,7 +10549,7 @@
       <c r="IL15" s="2"/>
       <c r="IM15" s="2"/>
     </row>
-    <row r="16" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:283" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>359</v>
       </c>
@@ -10862,7 +10954,7 @@
       <c r="IL16" s="2"/>
       <c r="IM16" s="2"/>
     </row>
-    <row r="17" spans="1:247" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:247" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>360</v>
       </c>
@@ -11267,7 +11359,7 @@
       <c r="IL17" s="2"/>
       <c r="IM17" s="2"/>
     </row>
-    <row r="18" spans="1:247" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:247" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -11683,202 +11775,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IP18"/>
+  <dimension ref="A1:IP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9.19921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.19921875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.296875" style="1" customWidth="1"/>
-    <col min="17" max="20" width="10.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.19921875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7" style="1" customWidth="1"/>
-    <col min="23" max="24" width="8.19921875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.296875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="6" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.19921875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.296875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.19921875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.19921875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="7" style="1" customWidth="1"/>
-    <col min="35" max="36" width="2.19921875" style="1" customWidth="1"/>
-    <col min="37" max="39" width="9.19921875" style="1" customWidth="1"/>
-    <col min="40" max="42" width="2.19921875" style="1" customWidth="1"/>
-    <col min="43" max="45" width="8.19921875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="7.19921875" style="1" customWidth="1"/>
-    <col min="47" max="49" width="2.19921875" style="1" customWidth="1"/>
-    <col min="50" max="53" width="8.19921875" style="1" customWidth="1"/>
-    <col min="54" max="55" width="10.296875" style="1" customWidth="1"/>
-    <col min="56" max="59" width="10.5" style="1" customWidth="1"/>
-    <col min="60" max="61" width="10.296875" style="1" customWidth="1"/>
-    <col min="62" max="62" width="7" style="1" customWidth="1"/>
-    <col min="63" max="63" width="7.19921875" style="1" customWidth="1"/>
-    <col min="64" max="64" width="6.19921875" style="1" customWidth="1"/>
-    <col min="65" max="65" width="9.19921875" style="1" customWidth="1"/>
-    <col min="66" max="66" width="8.19921875" style="1" customWidth="1"/>
-    <col min="67" max="67" width="10.19921875" style="1" customWidth="1"/>
-    <col min="68" max="69" width="2.19921875" style="1" customWidth="1"/>
-    <col min="70" max="70" width="10.19921875" style="1" customWidth="1"/>
-    <col min="71" max="75" width="2.19921875" style="1" customWidth="1"/>
-    <col min="76" max="79" width="6" style="1" customWidth="1"/>
-    <col min="80" max="80" width="7" style="1" customWidth="1"/>
-    <col min="81" max="81" width="6" style="1" customWidth="1"/>
-    <col min="82" max="83" width="2.69921875" style="1" customWidth="1"/>
-    <col min="84" max="84" width="2.19921875" style="1" customWidth="1"/>
-    <col min="85" max="85" width="2.69921875" style="1" customWidth="1"/>
-    <col min="86" max="86" width="2.19921875" style="1" customWidth="1"/>
-    <col min="87" max="89" width="2.69921875" style="1" customWidth="1"/>
-    <col min="90" max="90" width="2.19921875" style="1" customWidth="1"/>
-    <col min="91" max="93" width="9.19921875" style="1" customWidth="1"/>
-    <col min="94" max="94" width="10.296875" style="1" customWidth="1"/>
-    <col min="95" max="95" width="2.19921875" style="1" customWidth="1"/>
-    <col min="96" max="96" width="6" style="1" customWidth="1"/>
-    <col min="97" max="97" width="10.296875" style="1" customWidth="1"/>
-    <col min="98" max="98" width="6" style="1" customWidth="1"/>
-    <col min="99" max="99" width="10.296875" style="1" customWidth="1"/>
-    <col min="100" max="100" width="10.19921875" style="1" customWidth="1"/>
-    <col min="101" max="101" width="2.19921875" style="1" customWidth="1"/>
-    <col min="102" max="102" width="9.19921875" style="1" customWidth="1"/>
-    <col min="103" max="103" width="2.19921875" style="1" customWidth="1"/>
-    <col min="104" max="104" width="8.19921875" style="1" customWidth="1"/>
-    <col min="105" max="105" width="10.19921875" style="1" customWidth="1"/>
-    <col min="106" max="106" width="9.19921875" style="1" customWidth="1"/>
-    <col min="107" max="110" width="2.19921875" style="1" customWidth="1"/>
-    <col min="111" max="112" width="8.19921875" style="1" customWidth="1"/>
-    <col min="113" max="113" width="2.19921875" style="1" customWidth="1"/>
-    <col min="114" max="114" width="10.5" style="1" customWidth="1"/>
-    <col min="115" max="115" width="2.19921875" style="1" customWidth="1"/>
-    <col min="116" max="116" width="7.19921875" style="1" customWidth="1"/>
-    <col min="117" max="117" width="10.5" style="1" customWidth="1"/>
-    <col min="118" max="118" width="7" style="1" customWidth="1"/>
-    <col min="119" max="121" width="6" style="1" customWidth="1"/>
-    <col min="122" max="123" width="7" style="1" customWidth="1"/>
-    <col min="124" max="124" width="9.19921875" style="1" customWidth="1"/>
-    <col min="125" max="125" width="10.296875" style="1" customWidth="1"/>
-    <col min="126" max="127" width="6" style="1" customWidth="1"/>
-    <col min="128" max="128" width="7" style="1" customWidth="1"/>
-    <col min="129" max="130" width="9.19921875" style="1" customWidth="1"/>
-    <col min="131" max="132" width="10.5" style="1" customWidth="1"/>
-    <col min="133" max="133" width="7" style="1" customWidth="1"/>
-    <col min="134" max="137" width="9.19921875" style="1" customWidth="1"/>
-    <col min="138" max="138" width="13.796875" style="1" customWidth="1"/>
-    <col min="139" max="139" width="12.796875" style="1" customWidth="1"/>
-    <col min="140" max="140" width="10.296875" style="1" customWidth="1"/>
-    <col min="141" max="144" width="10.5" style="1" customWidth="1"/>
-    <col min="145" max="145" width="2.19921875" style="1" customWidth="1"/>
-    <col min="146" max="146" width="7" style="1" customWidth="1"/>
-    <col min="147" max="148" width="8.19921875" style="1" customWidth="1"/>
-    <col min="149" max="149" width="7" style="1" customWidth="1"/>
-    <col min="150" max="150" width="6" style="1" customWidth="1"/>
-    <col min="151" max="151" width="10.5" style="1" customWidth="1"/>
-    <col min="152" max="152" width="10.296875" style="1" customWidth="1"/>
-    <col min="153" max="153" width="6" style="1" customWidth="1"/>
-    <col min="154" max="154" width="8.19921875" style="1" customWidth="1"/>
-    <col min="155" max="155" width="10.296875" style="1" customWidth="1"/>
-    <col min="156" max="156" width="9.19921875" style="1" customWidth="1"/>
-    <col min="157" max="157" width="11.19921875" style="1" customWidth="1"/>
-    <col min="158" max="158" width="7" style="1" customWidth="1"/>
-    <col min="159" max="160" width="2.19921875" style="1" customWidth="1"/>
-    <col min="161" max="163" width="9.19921875" style="1" customWidth="1"/>
-    <col min="164" max="166" width="2.19921875" style="1" customWidth="1"/>
-    <col min="167" max="169" width="8.19921875" style="1" customWidth="1"/>
-    <col min="170" max="170" width="7.19921875" style="1" customWidth="1"/>
-    <col min="171" max="173" width="2.19921875" style="1" customWidth="1"/>
-    <col min="174" max="177" width="8.19921875" style="1" customWidth="1"/>
-    <col min="178" max="179" width="10.296875" style="1" customWidth="1"/>
-    <col min="180" max="183" width="10.5" style="1" customWidth="1"/>
-    <col min="184" max="185" width="10.296875" style="1" customWidth="1"/>
-    <col min="186" max="186" width="7" style="1" customWidth="1"/>
-    <col min="187" max="188" width="7.19921875" style="1" customWidth="1"/>
-    <col min="189" max="189" width="9.19921875" style="1" customWidth="1"/>
-    <col min="190" max="190" width="8.19921875" style="1" customWidth="1"/>
-    <col min="191" max="191" width="10.19921875" style="1" customWidth="1"/>
-    <col min="192" max="193" width="2.19921875" style="1" customWidth="1"/>
-    <col min="194" max="194" width="10.19921875" style="1" customWidth="1"/>
-    <col min="195" max="199" width="2.19921875" style="1" customWidth="1"/>
-    <col min="200" max="205" width="6" style="1" customWidth="1"/>
-    <col min="206" max="207" width="2.69921875" style="1" customWidth="1"/>
-    <col min="208" max="208" width="2.19921875" style="1" customWidth="1"/>
-    <col min="209" max="209" width="2.69921875" style="1" customWidth="1"/>
-    <col min="210" max="210" width="2.19921875" style="1" customWidth="1"/>
-    <col min="211" max="213" width="2.69921875" style="1" customWidth="1"/>
-    <col min="214" max="214" width="2.19921875" style="1" customWidth="1"/>
-    <col min="215" max="217" width="9.19921875" style="1" customWidth="1"/>
-    <col min="218" max="218" width="10.296875" style="1" customWidth="1"/>
-    <col min="219" max="219" width="2.19921875" style="1" customWidth="1"/>
-    <col min="220" max="220" width="6" style="1" customWidth="1"/>
-    <col min="221" max="221" width="10.296875" style="1" customWidth="1"/>
-    <col min="222" max="222" width="6" style="1" customWidth="1"/>
-    <col min="223" max="223" width="10.296875" style="1" customWidth="1"/>
-    <col min="224" max="224" width="10.19921875" style="1" customWidth="1"/>
-    <col min="225" max="225" width="2.19921875" style="1" customWidth="1"/>
-    <col min="226" max="226" width="9.19921875" style="1" customWidth="1"/>
-    <col min="227" max="227" width="2.19921875" style="1" customWidth="1"/>
-    <col min="228" max="228" width="8.19921875" style="1" customWidth="1"/>
-    <col min="229" max="229" width="10.19921875" style="1" customWidth="1"/>
-    <col min="230" max="230" width="9.19921875" style="1" customWidth="1"/>
-    <col min="231" max="234" width="2.19921875" style="1" customWidth="1"/>
-    <col min="235" max="236" width="8.19921875" style="1" customWidth="1"/>
-    <col min="237" max="237" width="2.19921875" style="1" customWidth="1"/>
-    <col min="238" max="238" width="10.5" style="1" customWidth="1"/>
-    <col min="239" max="239" width="2.19921875" style="1" customWidth="1"/>
-    <col min="240" max="240" width="8.19921875" style="1" customWidth="1"/>
-    <col min="241" max="241" width="10.5" style="1" customWidth="1"/>
-    <col min="242" max="242" width="7" style="1" customWidth="1"/>
-    <col min="243" max="245" width="6" style="1" customWidth="1"/>
-    <col min="246" max="247" width="7" style="1" customWidth="1"/>
-    <col min="248" max="248" width="10.19921875" style="1" customWidth="1"/>
-    <col min="249" max="249" width="10.296875" style="1" customWidth="1"/>
-    <col min="250" max="251" width="9.19921875" style="1" customWidth="1"/>
-    <col min="252" max="252" width="8.19921875" style="1" customWidth="1"/>
-    <col min="253" max="253" width="10.19921875" style="1" customWidth="1"/>
-    <col min="254" max="254" width="8.19921875" style="1" customWidth="1"/>
-    <col min="255" max="255" width="7.19921875" style="1" customWidth="1"/>
-    <col min="256" max="257" width="2.19921875" style="1" customWidth="1"/>
-    <col min="258" max="258" width="8.19921875" style="1" customWidth="1"/>
-    <col min="259" max="259" width="7.19921875" style="1" customWidth="1"/>
-    <col min="260" max="260" width="9.19921875" style="1" customWidth="1"/>
-    <col min="261" max="261" width="11.19921875" style="1" customWidth="1"/>
-    <col min="262" max="262" width="5.19921875" style="1" customWidth="1"/>
-    <col min="263" max="263" width="10.19921875" style="1" customWidth="1"/>
-    <col min="264" max="269" width="2.19921875" style="1" customWidth="1"/>
-    <col min="270" max="270" width="8.19921875" style="1" customWidth="1"/>
-    <col min="271" max="271" width="7.19921875" style="1" customWidth="1"/>
-    <col min="272" max="272" width="8.19921875" style="1" customWidth="1"/>
-    <col min="273" max="275" width="7.19921875" style="1" customWidth="1"/>
-    <col min="276" max="277" width="2.19921875" style="1" customWidth="1"/>
-    <col min="278" max="280" width="8.19921875" style="1" customWidth="1"/>
-    <col min="281" max="281" width="26.796875" style="1" customWidth="1"/>
-    <col min="282" max="282" width="9.796875" style="1" customWidth="1"/>
-    <col min="283" max="283" width="18.5" style="1" customWidth="1"/>
-    <col min="284" max="285" width="2.19921875" style="1" customWidth="1"/>
-    <col min="286" max="287" width="4.19921875" style="1" customWidth="1"/>
-    <col min="288" max="288" width="6.19921875" style="1" customWidth="1"/>
-    <col min="289" max="289" width="8.19921875" style="1" customWidth="1"/>
-    <col min="290" max="290" width="4.19921875" style="1" customWidth="1"/>
-    <col min="291" max="291" width="7.19921875" style="1" customWidth="1"/>
-    <col min="292" max="292" width="4.19921875" style="1" customWidth="1"/>
-    <col min="293" max="293" width="80.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="294" max="16384" width="10.796875" style="1"/>
+    <col min="1" max="16384" width="17.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>355</v>
       </c>
@@ -11891,11 +11799,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>358</v>
       </c>
@@ -11908,11 +11816,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>359</v>
       </c>
@@ -11925,11 +11833,11 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>360</v>
       </c>
@@ -11942,11 +11850,11 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -11959,16 +11867,16 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:250" s="5" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>357</v>
+    <row r="7" spans="1:250" s="11" customFormat="1" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:250" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:250" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>356</v>
       </c>
@@ -12397,7 +12305,7 @@
       </c>
       <c r="EM8" s="3"/>
     </row>
-    <row r="9" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>358</v>
       </c>
@@ -12825,7 +12733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>359</v>
       </c>
@@ -13253,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>360</v>
       </c>
@@ -13681,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -14109,3760 +14017,3792 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:250" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:250" ht="47.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="U14" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="W14" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="X14" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="Z14" s="6" t="s">
+      <c r="Z14" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AA14" s="6" t="s">
+      <c r="AA14" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AB14" s="6" t="s">
+      <c r="AB14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AC14" s="6" t="s">
+      <c r="AC14" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AD14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AE14" s="6" t="s">
+      <c r="AE14" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AF14" s="6" t="s">
+      <c r="AF14" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="AG14" s="6" t="s">
+      <c r="AG14" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="AH14" s="6" t="s">
+      <c r="AH14" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AI14" s="6" t="s">
+      <c r="AI14" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AJ14" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="AK14" s="6" t="s">
+      <c r="AK14" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="AL14" s="6" t="s">
+      <c r="AL14" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="AM14" s="6" t="s">
+      <c r="AM14" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="AN14" s="6" t="s">
+      <c r="AN14" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="AO14" s="6" t="s">
+      <c r="AO14" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AP14" s="6" t="s">
+      <c r="AP14" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="AQ14" s="6" t="s">
+      <c r="AQ14" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AR14" s="6" t="s">
+      <c r="AR14" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AS14" s="6" t="s">
+      <c r="AS14" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AT14" s="6" t="s">
+      <c r="AT14" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="AU14" s="6" t="s">
+      <c r="AU14" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AV14" s="6" t="s">
+      <c r="AV14" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="AW14" s="6" t="s">
+      <c r="AW14" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AX14" s="6" t="s">
+      <c r="AX14" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="AY14" s="6" t="s">
+      <c r="AY14" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AZ14" s="6" t="s">
+      <c r="AZ14" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="BA14" s="6" t="s">
+      <c r="BA14" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="BB14" s="6" t="s">
+      <c r="BB14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="BC14" s="6" t="s">
+      <c r="BC14" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="BD14" s="6" t="s">
+      <c r="BD14" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="BE14" s="6" t="s">
+      <c r="BE14" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="BF14" s="6" t="s">
+      <c r="BF14" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="BG14" s="6" t="s">
+      <c r="BG14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="BH14" s="6" t="s">
+      <c r="BH14" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="BI14" s="6" t="s">
+      <c r="BI14" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="BJ14" s="6" t="s">
+      <c r="BJ14" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="BK14" s="6" t="s">
+      <c r="BK14" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="BL14" s="6" t="s">
+      <c r="BL14" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="BM14" s="6" t="s">
+      <c r="BM14" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="BN14" s="6" t="s">
+      <c r="BN14" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="BO14" s="6" t="s">
+      <c r="BO14" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="BP14" s="6" t="s">
+      <c r="BP14" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="BQ14" s="6" t="s">
+      <c r="BQ14" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="BR14" s="6" t="s">
+      <c r="BR14" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="BS14" s="6" t="s">
+      <c r="BS14" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="BT14" s="6" t="s">
+      <c r="BT14" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="BU14" s="6" t="s">
+      <c r="BU14" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="BV14" s="6" t="s">
+      <c r="BV14" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="BW14" s="6" t="s">
+      <c r="BW14" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="BX14" s="6" t="s">
+      <c r="BX14" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="BY14" s="6" t="s">
+      <c r="BY14" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="BZ14" s="6" t="s">
+      <c r="BZ14" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="CA14" s="6" t="s">
+      <c r="CA14" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="CB14" s="6" t="s">
+      <c r="CB14" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="CC14" s="6" t="s">
+      <c r="CC14" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="CD14" s="6" t="s">
+      <c r="CD14" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="CE14" s="6" t="s">
+      <c r="CE14" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="CF14" s="6" t="s">
+      <c r="CF14" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="CG14" s="6" t="s">
+      <c r="CG14" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="CH14" s="6" t="s">
+      <c r="CH14" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="CI14" s="6" t="s">
+      <c r="CI14" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="CJ14" s="6" t="s">
+      <c r="CJ14" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="CK14" s="6" t="s">
+      <c r="CK14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="CL14" s="6" t="s">
+      <c r="CL14" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="CM14" s="6" t="s">
+      <c r="CM14" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="CN14" s="6" t="s">
+      <c r="CN14" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="CO14" s="6" t="s">
+      <c r="CO14" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="CP14" s="6" t="s">
+      <c r="CP14" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="CQ14" s="6" t="s">
+      <c r="CQ14" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="CR14" s="6" t="s">
+      <c r="CR14" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="CS14" s="6" t="s">
+      <c r="CS14" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="CT14" s="6" t="s">
+      <c r="CT14" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="CU14" s="6" t="s">
+      <c r="CU14" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CV14" s="6" t="s">
+      <c r="CV14" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="CW14" s="6" t="s">
+      <c r="CW14" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="CX14" s="6" t="s">
+      <c r="CX14" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="CY14" s="6" t="s">
+      <c r="CY14" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="CZ14" s="6" t="s">
+      <c r="CZ14" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="DA14" s="6" t="s">
+      <c r="DA14" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="DB14" s="6" t="s">
+      <c r="DB14" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="DC14" s="6" t="s">
+      <c r="DC14" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="DD14" s="6" t="s">
+      <c r="DD14" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DE14" s="6" t="s">
+      <c r="DE14" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="DF14" s="6" t="s">
+      <c r="DF14" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="DG14" s="6" t="s">
+      <c r="DG14" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="DH14" s="6" t="s">
+      <c r="DH14" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="DI14" s="6" t="s">
+      <c r="DI14" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="DJ14" s="6" t="s">
+      <c r="DJ14" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="DK14" s="6" t="s">
+      <c r="DK14" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="DL14" s="6" t="s">
+      <c r="DL14" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="DM14" s="6" t="s">
+      <c r="DM14" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="DN14" s="6" t="s">
+      <c r="DN14" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="DO14" s="6" t="s">
+      <c r="DO14" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="DP14" s="6" t="s">
+      <c r="DP14" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="DQ14" s="6" t="s">
+      <c r="DQ14" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="DR14" s="6" t="s">
+      <c r="DR14" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="DS14" s="6" t="s">
+      <c r="DS14" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="DT14" s="6" t="s">
+      <c r="DT14" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="DU14" s="6" t="s">
+      <c r="DU14" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="DV14" s="6" t="s">
+      <c r="DV14" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="DW14" s="6" t="s">
+      <c r="DW14" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="DX14" s="6" t="s">
+      <c r="DX14" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="DY14" s="6" t="s">
+      <c r="DY14" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="DZ14" s="6" t="s">
+      <c r="DZ14" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="EA14" s="6" t="s">
+      <c r="EA14" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="EB14" s="6" t="s">
+      <c r="EB14" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="EC14" s="6" t="s">
+      <c r="EC14" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="ED14" s="6" t="s">
+      <c r="ED14" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="EE14" s="6" t="s">
+      <c r="EE14" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="EF14" s="6" t="s">
+      <c r="EF14" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="EG14" s="6" t="s">
+      <c r="EG14" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="EH14" s="6" t="s">
+      <c r="EH14" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="EI14" s="6" t="s">
+      <c r="EI14" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="EJ14" s="6" t="s">
+      <c r="EJ14" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="EK14" s="6" t="s">
+      <c r="EK14" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="EL14" s="6" t="s">
+      <c r="EL14" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="EM14" s="6" t="s">
+      <c r="EM14" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="EN14" s="6" t="s">
+      <c r="EN14" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="EO14" s="6" t="s">
+      <c r="EO14" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="EP14" s="6" t="s">
+      <c r="EP14" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="EQ14" s="6" t="s">
+      <c r="EQ14" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="ER14" s="6" t="s">
+      <c r="ER14" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="ES14" s="6" t="s">
+      <c r="ES14" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="ET14" s="6" t="s">
+      <c r="ET14" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="EU14" s="6" t="s">
+      <c r="EU14" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="EV14" s="6" t="s">
+      <c r="EV14" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="EW14" s="6" t="s">
+      <c r="EW14" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="EX14" s="6" t="s">
+      <c r="EX14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="EY14" s="6" t="s">
+      <c r="EY14" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="EZ14" s="6" t="s">
+      <c r="EZ14" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="FA14" s="6" t="s">
+      <c r="FA14" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="FB14" s="6" t="s">
+      <c r="FB14" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="FC14" s="6" t="s">
+      <c r="FC14" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="FD14" s="6" t="s">
+      <c r="FD14" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="FE14" s="6" t="s">
+      <c r="FE14" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="FF14" s="6" t="s">
+      <c r="FF14" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="FG14" s="6" t="s">
+      <c r="FG14" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="FH14" s="6" t="s">
+      <c r="FH14" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="FI14" s="6" t="s">
+      <c r="FI14" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="FJ14" s="6" t="s">
+      <c r="FJ14" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="FK14" s="6" t="s">
+      <c r="FK14" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="FL14" s="6" t="s">
+      <c r="FL14" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="FM14" s="6" t="s">
+      <c r="FM14" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="FN14" s="6" t="s">
+      <c r="FN14" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="FO14" s="6" t="s">
+      <c r="FO14" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="FP14" s="6" t="s">
+      <c r="FP14" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="FQ14" s="6" t="s">
+      <c r="FQ14" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="FR14" s="6" t="s">
+      <c r="FR14" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="FS14" s="6" t="s">
+      <c r="FS14" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="FT14" s="6" t="s">
+      <c r="FT14" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="FU14" s="6" t="s">
+      <c r="FU14" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="FV14" s="6" t="s">
+      <c r="FV14" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="FW14" s="6" t="s">
+      <c r="FW14" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="FX14" s="6" t="s">
+      <c r="FX14" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="FY14" s="6" t="s">
+      <c r="FY14" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="FZ14" s="6" t="s">
+      <c r="FZ14" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="GA14" s="6" t="s">
+      <c r="GA14" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="GB14" s="6" t="s">
+      <c r="GB14" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="GC14" s="6" t="s">
+      <c r="GC14" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="GD14" s="6" t="s">
+      <c r="GD14" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="GE14" s="6" t="s">
+      <c r="GE14" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="GF14" s="6" t="s">
+      <c r="GF14" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="GG14" s="6" t="s">
+      <c r="GG14" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="GH14" s="6" t="s">
+      <c r="GH14" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="GI14" s="6" t="s">
+      <c r="GI14" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="GJ14" s="6" t="s">
+      <c r="GJ14" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="GK14" s="6" t="s">
+      <c r="GK14" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="GL14" s="6" t="s">
+      <c r="GL14" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="GM14" s="6" t="s">
+      <c r="GM14" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="GN14" s="6" t="s">
+      <c r="GN14" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="GO14" s="6" t="s">
+      <c r="GO14" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="GP14" s="6" t="s">
+      <c r="GP14" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="GQ14" s="6" t="s">
+      <c r="GQ14" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="GR14" s="6" t="s">
+      <c r="GR14" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="GS14" s="6" t="s">
+      <c r="GS14" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="GT14" s="6" t="s">
+      <c r="GT14" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="GU14" s="6" t="s">
+      <c r="GU14" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="GV14" s="6" t="s">
+      <c r="GV14" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="GW14" s="6" t="s">
+      <c r="GW14" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="GX14" s="6" t="s">
+      <c r="GX14" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="GY14" s="6" t="s">
+      <c r="GY14" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="GZ14" s="6" t="s">
+      <c r="GZ14" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="HA14" s="6" t="s">
+      <c r="HA14" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="HB14" s="6" t="s">
+      <c r="HB14" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="HC14" s="6" t="s">
+      <c r="HC14" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="HD14" s="6" t="s">
+      <c r="HD14" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="HE14" s="6" t="s">
+      <c r="HE14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="HF14" s="6" t="s">
+      <c r="HF14" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="HG14" s="6" t="s">
+      <c r="HG14" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="HH14" s="6" t="s">
+      <c r="HH14" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="HI14" s="6" t="s">
+      <c r="HI14" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="HJ14" s="6" t="s">
+      <c r="HJ14" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="HK14" s="6" t="s">
+      <c r="HK14" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="HL14" s="6" t="s">
+      <c r="HL14" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="HM14" s="6" t="s">
+      <c r="HM14" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="HN14" s="6" t="s">
+      <c r="HN14" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="HO14" s="6" t="s">
+      <c r="HO14" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="HP14" s="6" t="s">
+      <c r="HP14" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="HQ14" s="6" t="s">
+      <c r="HQ14" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="HR14" s="6" t="s">
+      <c r="HR14" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="HS14" s="6" t="s">
+      <c r="HS14" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="HT14" s="6" t="s">
+      <c r="HT14" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="HU14" s="6" t="s">
+      <c r="HU14" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="HV14" s="6" t="s">
+      <c r="HV14" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="HW14" s="6" t="s">
+      <c r="HW14" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="HX14" s="6" t="s">
+      <c r="HX14" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="HY14" s="6" t="s">
+      <c r="HY14" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="HZ14" s="6" t="s">
+      <c r="HZ14" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="IA14" s="6" t="s">
+      <c r="IA14" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="IB14" s="6" t="s">
+      <c r="IB14" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="IC14" s="6" t="s">
+      <c r="IC14" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="ID14" s="6" t="s">
+      <c r="ID14" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="IE14" s="6" t="s">
+      <c r="IE14" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="IF14" s="6" t="s">
+      <c r="IF14" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="IG14" s="6" t="s">
+      <c r="IG14" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="IH14" s="6" t="s">
+      <c r="IH14" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="II14" s="6" t="s">
+      <c r="II14" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="IJ14" s="6" t="s">
+      <c r="IJ14" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="IK14" s="6" t="s">
+      <c r="IK14" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="IL14" s="6" t="s">
+      <c r="IL14" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="IM14" s="6" t="s">
+      <c r="IM14" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="IN14" s="6" t="s">
+      <c r="IN14" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="IO14" s="6" t="s">
+      <c r="IO14" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="IP14" s="7"/>
+      <c r="IP14" s="5"/>
     </row>
-    <row r="15" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B15" s="8">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
         <v>0.99819999999999998</v>
       </c>
       <c r="E15" s="7">
         <v>0.251774</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>0.49739499999999998</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>0.99819999999999998</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>0.251774</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>1.1346039999999999</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>0.29956899999999997</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <v>3.8614000000000002E-2</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="s">
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="6">
         <v>0.25</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="6">
         <v>3.3226</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="6">
         <v>1</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="12">
         <v>0.81779999999999997</v>
       </c>
-      <c r="Z15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7" t="s">
+      <c r="Z15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AB15" s="7" t="s">
+      <c r="AB15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="8">
+      <c r="AC15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="6">
         <v>1</v>
       </c>
-      <c r="AE15" s="7" t="s">
+      <c r="AE15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF15" s="7">
+      <c r="AF15" s="5">
         <v>0.537408</v>
       </c>
-      <c r="AG15" s="7">
+      <c r="AG15" s="5">
         <v>464</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="6">
         <v>0.12429999999999999</v>
       </c>
-      <c r="AI15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="7">
+      <c r="AI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="5">
         <v>2</v>
       </c>
-      <c r="AL15" s="7">
+      <c r="AL15" s="5">
         <v>2.0003649999999999</v>
       </c>
-      <c r="AM15" s="7">
+      <c r="AM15" s="5">
         <v>1.0679609999999999</v>
       </c>
-      <c r="AN15" s="7">
+      <c r="AN15" s="5">
         <v>2</v>
       </c>
-      <c r="AO15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="7">
+      <c r="AO15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="5">
         <v>9510912</v>
       </c>
-      <c r="AR15" s="7">
+      <c r="AR15" s="5">
         <v>737409</v>
       </c>
-      <c r="AS15" s="7">
+      <c r="AS15" s="5">
         <v>5744640</v>
       </c>
-      <c r="AT15" s="7">
+      <c r="AT15" s="5">
         <v>589824</v>
       </c>
-      <c r="AU15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="7">
+      <c r="AU15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="5">
         <v>5</v>
       </c>
-      <c r="AW15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="7">
+      <c r="AW15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="5">
         <v>1672162</v>
       </c>
-      <c r="AY15" s="7">
+      <c r="AY15" s="5">
         <v>1764689</v>
       </c>
-      <c r="AZ15" s="7">
+      <c r="AZ15" s="5">
         <v>6476919</v>
       </c>
-      <c r="BA15" s="7">
+      <c r="BA15" s="5">
         <v>1179662</v>
       </c>
-      <c r="BB15" s="7" t="s">
+      <c r="BB15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BC15" s="7" t="s">
+      <c r="BC15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BD15" s="7" t="s">
+      <c r="BD15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="BE15" s="7" t="s">
+      <c r="BE15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="BF15" s="7" t="s">
+      <c r="BF15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="BG15" s="7" t="s">
+      <c r="BG15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="BH15" s="7" t="s">
+      <c r="BH15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BI15" s="7" t="s">
+      <c r="BI15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="BJ15" s="8">
+      <c r="BJ15" s="6">
         <v>0.99980000000000002</v>
       </c>
-      <c r="BK15" s="7">
+      <c r="BK15" s="5">
         <v>135916</v>
       </c>
-      <c r="BL15" s="7">
+      <c r="BL15" s="5">
         <v>73728</v>
       </c>
-      <c r="BM15" s="7">
+      <c r="BM15" s="5">
         <v>24490003</v>
       </c>
-      <c r="BN15" s="7">
+      <c r="BN15" s="5">
         <v>10801152</v>
       </c>
-      <c r="BO15" s="7">
+      <c r="BO15" s="5">
         <v>320864256</v>
       </c>
-      <c r="BP15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BR15" s="7">
+      <c r="BP15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="5">
         <v>160432128</v>
       </c>
-      <c r="BS15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BT15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BU15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BV15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BW15" s="7">
-        <v>0</v>
-      </c>
-      <c r="BX15" s="8">
+      <c r="BS15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="6">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="BY15" s="8">
+      <c r="BY15" s="6">
         <v>4.19E-2</v>
       </c>
-      <c r="BZ15" s="8">
+      <c r="BZ15" s="6">
         <v>0.83830000000000005</v>
       </c>
-      <c r="CA15" s="8">
-        <v>0</v>
-      </c>
-      <c r="CB15" s="8">
+      <c r="CA15" s="6">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="6">
         <v>2E-3</v>
       </c>
-      <c r="CC15" s="8">
+      <c r="CC15" s="6">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="CD15" s="7">
+      <c r="CD15" s="5">
         <v>-2</v>
       </c>
-      <c r="CE15" s="7">
+      <c r="CE15" s="5">
         <v>-1</v>
       </c>
-      <c r="CF15" s="7">
-        <v>0</v>
-      </c>
-      <c r="CG15" s="7">
+      <c r="CF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG15" s="5">
         <v>-1</v>
       </c>
-      <c r="CH15" s="7">
+      <c r="CH15" s="5">
         <v>-1</v>
       </c>
-      <c r="CI15" s="7">
+      <c r="CI15" s="5">
         <v>-4</v>
       </c>
-      <c r="CJ15" s="7">
+      <c r="CJ15" s="5">
         <v>-1</v>
       </c>
-      <c r="CK15" s="7">
+      <c r="CK15" s="5">
         <v>-1</v>
       </c>
-      <c r="CL15" s="7">
-        <v>0</v>
-      </c>
-      <c r="CM15" s="7">
+      <c r="CL15" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM15" s="5">
         <v>17104896</v>
       </c>
-      <c r="CN15" s="7">
+      <c r="CN15" s="5">
         <v>36512184</v>
       </c>
-      <c r="CO15" s="7">
+      <c r="CO15" s="5">
         <v>33783180</v>
       </c>
-      <c r="CP15" s="7" t="s">
+      <c r="CP15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CQ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="CR15" s="8">
-        <v>0</v>
-      </c>
-      <c r="CS15" s="7" t="s">
+      <c r="CQ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR15" s="6">
+        <v>0</v>
+      </c>
+      <c r="CS15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CT15" s="8">
-        <v>0</v>
-      </c>
-      <c r="CU15" s="7" t="s">
+      <c r="CT15" s="6">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CV15" s="7">
+      <c r="CV15" s="5">
         <v>160432128</v>
       </c>
-      <c r="CW15" s="7">
-        <v>0</v>
-      </c>
-      <c r="CX15" s="7">
+      <c r="CW15" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX15" s="5">
         <v>24772608</v>
       </c>
-      <c r="CY15" s="7">
-        <v>0</v>
-      </c>
-      <c r="CZ15" s="7">
+      <c r="CY15" s="5">
+        <v>0</v>
+      </c>
+      <c r="CZ15" s="5">
         <v>1179648</v>
       </c>
-      <c r="DA15" s="7">
+      <c r="DA15" s="5">
         <v>345538560</v>
       </c>
-      <c r="DB15" s="7">
+      <c r="DB15" s="5">
         <v>15335424</v>
       </c>
-      <c r="DC15" s="7">
-        <v>0</v>
-      </c>
-      <c r="DD15" s="7">
-        <v>0</v>
-      </c>
-      <c r="DE15" s="7">
-        <v>0</v>
-      </c>
-      <c r="DF15" s="7">
-        <v>0</v>
-      </c>
-      <c r="DG15" s="7">
+      <c r="DC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE15" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="5">
         <v>6475776</v>
       </c>
-      <c r="DH15" s="7">
+      <c r="DH15" s="5">
         <v>1179648</v>
       </c>
-      <c r="DI15" s="7">
-        <v>0</v>
-      </c>
-      <c r="DJ15" s="7" t="s">
+      <c r="DI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="DK15" s="7">
-        <v>0</v>
-      </c>
-      <c r="DL15" s="7">
+      <c r="DK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL15" s="5">
         <v>1076693</v>
       </c>
-      <c r="DM15" s="7" t="s">
+      <c r="DM15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="DN15" s="8">
+      <c r="DN15" s="6">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="DO15" s="8">
-        <v>0</v>
-      </c>
-      <c r="DP15" s="8">
+      <c r="DO15" s="6">
+        <v>0</v>
+      </c>
+      <c r="DP15" s="6">
         <v>1.23E-2</v>
       </c>
-      <c r="DQ15" s="8">
-        <v>0</v>
-      </c>
-      <c r="DR15" s="8">
+      <c r="DQ15" s="6">
+        <v>0</v>
+      </c>
+      <c r="DR15" s="6">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="DS15" s="8">
+      <c r="DS15" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="DT15" s="7">
+      <c r="DT15" s="5">
         <v>0.84062099999999995</v>
       </c>
-      <c r="DU15" s="7" t="s">
+      <c r="DU15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="DV15" s="8">
-        <v>0</v>
-      </c>
-      <c r="DW15" s="8">
-        <v>0</v>
-      </c>
-      <c r="DX15" s="8">
+      <c r="DV15" s="6">
+        <v>0</v>
+      </c>
+      <c r="DW15" s="6">
+        <v>0</v>
+      </c>
+      <c r="DX15" s="6">
         <v>0.99819999999999998</v>
       </c>
-      <c r="DY15" s="7">
+      <c r="DY15" s="5">
         <v>0.24522099999999999</v>
       </c>
-      <c r="DZ15" s="7">
+      <c r="DZ15" s="5">
         <v>0.98830200000000001</v>
       </c>
-      <c r="EA15" s="7" t="s">
+      <c r="EA15" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="EB15" s="7" t="s">
+      <c r="EB15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="EC15" s="8">
+      <c r="EC15" s="6">
         <v>0.99819999999999998</v>
       </c>
-      <c r="ED15" s="7">
+      <c r="ED15" s="5">
         <v>0.24522099999999999</v>
       </c>
-      <c r="EE15" s="7">
+      <c r="EE15" s="5">
         <v>1.7627740000000001</v>
       </c>
-      <c r="EF15" s="7">
+      <c r="EF15" s="5">
         <v>0.18374699999999999</v>
       </c>
-      <c r="EG15" s="7">
+      <c r="EG15" s="5">
         <v>3.9756E-2</v>
       </c>
-      <c r="EH15" s="7">
-        <v>0</v>
-      </c>
-      <c r="EI15" s="8">
-        <v>0</v>
-      </c>
-      <c r="EJ15" s="7" t="s">
+      <c r="EH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI15" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EK15" s="7" t="s">
+      <c r="EK15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="EL15" s="7" t="s">
+      <c r="EL15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="EM15" s="7" t="s">
+      <c r="EM15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="EN15" s="7" t="s">
+      <c r="EN15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="EO15" s="7">
-        <v>0</v>
-      </c>
-      <c r="EP15" s="8">
+      <c r="EO15" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP15" s="6">
         <v>0.25</v>
       </c>
-      <c r="EQ15" s="8">
+      <c r="EQ15" s="6">
         <v>3.3203999999999998</v>
       </c>
-      <c r="ER15" s="8">
+      <c r="ER15" s="6">
         <v>1</v>
       </c>
-      <c r="ES15" s="8">
+      <c r="ES15" s="6">
         <v>0.78890000000000005</v>
       </c>
-      <c r="ET15" s="8">
-        <v>0</v>
-      </c>
-      <c r="EU15" s="7" t="s">
+      <c r="ET15" s="6">
+        <v>0</v>
+      </c>
+      <c r="EU15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="EV15" s="7" t="s">
+      <c r="EV15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EW15" s="8">
-        <v>0</v>
-      </c>
-      <c r="EX15" s="8">
+      <c r="EW15" s="6">
+        <v>0</v>
+      </c>
+      <c r="EX15" s="6">
         <v>1</v>
       </c>
-      <c r="EY15" s="7" t="s">
+      <c r="EY15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EZ15" s="7">
+      <c r="EZ15" s="5">
         <v>0.67746099999999998</v>
       </c>
-      <c r="FA15" s="7">
+      <c r="FA15" s="5">
         <v>451.70833299999998</v>
       </c>
-      <c r="FB15" s="8">
+      <c r="FB15" s="6">
         <v>0.15939999999999999</v>
       </c>
-      <c r="FC15" s="7">
-        <v>0</v>
-      </c>
-      <c r="FD15" s="7">
-        <v>0</v>
-      </c>
-      <c r="FE15" s="7">
+      <c r="FC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE15" s="5">
         <v>2</v>
       </c>
-      <c r="FF15" s="7">
+      <c r="FF15" s="5">
         <v>2.0000749999999998</v>
       </c>
-      <c r="FG15" s="7">
+      <c r="FG15" s="5">
         <v>1.068227</v>
       </c>
-      <c r="FH15" s="7">
+      <c r="FH15" s="5">
         <v>2</v>
       </c>
-      <c r="FI15" s="7">
-        <v>0</v>
-      </c>
-      <c r="FJ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="FK15" s="7">
+      <c r="FI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK15" s="5">
         <v>5382144</v>
       </c>
-      <c r="FL15" s="7">
+      <c r="FL15" s="5">
         <v>737310</v>
       </c>
-      <c r="FM15" s="7">
+      <c r="FM15" s="5">
         <v>5747712</v>
       </c>
-      <c r="FN15" s="7">
+      <c r="FN15" s="5">
         <v>589824</v>
       </c>
-      <c r="FO15" s="7">
-        <v>0</v>
-      </c>
-      <c r="FP15" s="7">
+      <c r="FO15" s="5">
+        <v>0</v>
+      </c>
+      <c r="FP15" s="5">
         <v>4</v>
       </c>
-      <c r="FQ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="FR15" s="7">
+      <c r="FQ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR15" s="5">
         <v>2042422</v>
       </c>
-      <c r="FS15" s="7">
+      <c r="FS15" s="5">
         <v>1731648</v>
       </c>
-      <c r="FT15" s="7">
+      <c r="FT15" s="5">
         <v>6482867</v>
       </c>
-      <c r="FU15" s="7">
+      <c r="FU15" s="5">
         <v>1179660</v>
       </c>
-      <c r="FV15" s="7" t="s">
+      <c r="FV15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="FW15" s="7" t="s">
+      <c r="FW15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="FX15" s="7" t="s">
+      <c r="FX15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="FY15" s="7" t="s">
+      <c r="FY15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="FZ15" s="7" t="s">
+      <c r="FZ15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="GA15" s="7" t="s">
+      <c r="GA15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="GB15" s="7" t="s">
+      <c r="GB15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="GC15" s="7" t="s">
+      <c r="GC15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="GD15" s="8">
+      <c r="GD15" s="6">
         <v>0.99570000000000003</v>
       </c>
-      <c r="GE15" s="7">
+      <c r="GE15" s="5">
         <v>219157</v>
       </c>
-      <c r="GF15" s="7">
+      <c r="GF15" s="5">
         <v>147456</v>
       </c>
-      <c r="GG15" s="7">
+      <c r="GG15" s="5">
         <v>32724887</v>
       </c>
-      <c r="GH15" s="7">
+      <c r="GH15" s="5">
         <v>8735232</v>
       </c>
-      <c r="GI15" s="7">
+      <c r="GI15" s="5">
         <v>320864256</v>
       </c>
-      <c r="GJ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="GK15" s="7">
-        <v>0</v>
-      </c>
-      <c r="GL15" s="7">
+      <c r="GJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="GK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="GL15" s="5">
         <v>160432128</v>
       </c>
-      <c r="GM15" s="7">
-        <v>0</v>
-      </c>
-      <c r="GN15" s="7">
-        <v>0</v>
-      </c>
-      <c r="GO15" s="7">
-        <v>0</v>
-      </c>
-      <c r="GP15" s="7">
-        <v>0</v>
-      </c>
-      <c r="GQ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="GR15" s="8">
+      <c r="GM15" s="5">
+        <v>0</v>
+      </c>
+      <c r="GN15" s="5">
+        <v>0</v>
+      </c>
+      <c r="GO15" s="5">
+        <v>0</v>
+      </c>
+      <c r="GP15" s="5">
+        <v>0</v>
+      </c>
+      <c r="GQ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="GR15" s="6">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="GS15" s="8">
+      <c r="GS15" s="6">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="GT15" s="8">
+      <c r="GT15" s="6">
         <v>0.36009999999999998</v>
       </c>
-      <c r="GU15" s="8">
-        <v>0</v>
-      </c>
-      <c r="GV15" s="8">
+      <c r="GU15" s="6">
+        <v>0</v>
+      </c>
+      <c r="GV15" s="6">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="GW15" s="8">
+      <c r="GW15" s="6">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="GX15" s="7">
+      <c r="GX15" s="5">
         <v>-2</v>
       </c>
-      <c r="GY15" s="7">
+      <c r="GY15" s="5">
         <v>-1</v>
       </c>
-      <c r="GZ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HA15" s="7">
+      <c r="GZ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HA15" s="5">
         <v>-1</v>
       </c>
-      <c r="HB15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HC15" s="7">
+      <c r="HB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HC15" s="5">
         <v>-5</v>
       </c>
-      <c r="HD15" s="7">
+      <c r="HD15" s="5">
         <v>-1</v>
       </c>
-      <c r="HE15" s="7">
+      <c r="HE15" s="5">
         <v>-1</v>
       </c>
-      <c r="HF15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HG15" s="7">
+      <c r="HF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HG15" s="5">
         <v>16651776</v>
       </c>
-      <c r="HH15" s="7">
+      <c r="HH15" s="5">
         <v>46005091</v>
       </c>
-      <c r="HI15" s="7">
+      <c r="HI15" s="5">
         <v>43290136</v>
       </c>
-      <c r="HJ15" s="7" t="s">
+      <c r="HJ15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HK15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HL15" s="8">
-        <v>0</v>
-      </c>
-      <c r="HM15" s="7" t="s">
+      <c r="HK15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HL15" s="6">
+        <v>0</v>
+      </c>
+      <c r="HM15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HN15" s="8">
-        <v>0</v>
-      </c>
-      <c r="HO15" s="7" t="s">
+      <c r="HN15" s="6">
+        <v>0</v>
+      </c>
+      <c r="HO15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HP15" s="7">
+      <c r="HP15" s="5">
         <v>160432128</v>
       </c>
-      <c r="HQ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HR15" s="7">
+      <c r="HQ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HR15" s="5">
         <v>71737344</v>
       </c>
-      <c r="HS15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HT15" s="7">
+      <c r="HS15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HT15" s="5">
         <v>1228800</v>
       </c>
-      <c r="HU15" s="7">
+      <c r="HU15" s="5">
         <v>279527424</v>
       </c>
-      <c r="HV15" s="7">
+      <c r="HV15" s="5">
         <v>17620992</v>
       </c>
-      <c r="HW15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HX15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HY15" s="7">
-        <v>0</v>
-      </c>
-      <c r="HZ15" s="7">
-        <v>0</v>
-      </c>
-      <c r="IA15" s="7">
+      <c r="HW15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HX15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HY15" s="5">
+        <v>0</v>
+      </c>
+      <c r="HZ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="IA15" s="5">
         <v>6481920</v>
       </c>
-      <c r="IB15" s="7">
+      <c r="IB15" s="5">
         <v>1179648</v>
       </c>
-      <c r="IC15" s="7">
-        <v>0</v>
-      </c>
-      <c r="ID15" s="7" t="s">
+      <c r="IC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="ID15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="IE15" s="7">
-        <v>0</v>
-      </c>
-      <c r="IF15" s="7">
+      <c r="IE15" s="5">
+        <v>0</v>
+      </c>
+      <c r="IF15" s="5">
         <v>1225242</v>
       </c>
-      <c r="IG15" s="7" t="s">
+      <c r="IG15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="IH15" s="8">
+      <c r="IH15" s="6">
         <v>1.55E-2</v>
       </c>
-      <c r="II15" s="8">
-        <v>0</v>
-      </c>
-      <c r="IJ15" s="8">
+      <c r="II15" s="6">
+        <v>0</v>
+      </c>
+      <c r="IJ15" s="6">
         <v>1.23E-2</v>
       </c>
-      <c r="IK15" s="8">
-        <v>0</v>
-      </c>
-      <c r="IL15" s="8">
+      <c r="IK15" s="6">
+        <v>0</v>
+      </c>
+      <c r="IL15" s="6">
         <v>0.57289999999999996</v>
       </c>
-      <c r="IM15" s="8">
+      <c r="IM15" s="6">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="IN15" s="7">
+      <c r="IN15" s="5">
         <v>1.402614</v>
       </c>
-      <c r="IO15" s="7" t="s">
+      <c r="IO15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="IP15" s="7"/>
+      <c r="IP15" s="5"/>
     </row>
-    <row r="16" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="8">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
         <v>0.99309999999999998</v>
       </c>
       <c r="E16" s="7">
         <v>1.3654489999999999</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.969356</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>0.99309999999999998</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>1.3654489999999999</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>0.35110200000000003</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>0.230103</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>4.9785999999999997E-2</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
         <v>1</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="8">
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
         <v>0.25</v>
       </c>
-      <c r="W16" s="8">
+      <c r="W16" s="6">
         <v>1</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="6">
         <v>1</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="12">
         <v>0.1118</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z16" s="6">
         <v>0.98080000000000001</v>
       </c>
-      <c r="AA16" s="7" t="s">
+      <c r="AA16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AB16" s="7" t="s">
+      <c r="AB16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AC16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="8">
+      <c r="AC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="6">
         <v>1</v>
       </c>
-      <c r="AE16" s="7" t="s">
+      <c r="AE16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AF16" s="5">
         <v>1.845097</v>
       </c>
-      <c r="AG16" s="7">
+      <c r="AG16" s="5">
         <v>360.70833299999998</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AH16" s="6">
         <v>0.39129999999999998</v>
       </c>
-      <c r="AI16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="7">
+      <c r="AI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="5">
         <v>2</v>
       </c>
-      <c r="AL16" s="7">
+      <c r="AL16" s="5">
         <v>2.0000399999999998</v>
       </c>
-      <c r="AM16" s="7">
+      <c r="AM16" s="5">
         <v>2</v>
       </c>
-      <c r="AN16" s="7">
+      <c r="AN16" s="5">
         <v>2</v>
       </c>
-      <c r="AO16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="7">
+      <c r="AO16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="5">
         <v>5382144</v>
       </c>
-      <c r="AR16" s="7">
+      <c r="AR16" s="5">
         <v>737296</v>
       </c>
-      <c r="AS16" s="7">
+      <c r="AS16" s="5">
         <v>734208</v>
       </c>
-      <c r="AT16" s="7">
+      <c r="AT16" s="5">
         <v>589824</v>
       </c>
-      <c r="AU16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="7">
+      <c r="AU16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="5">
         <v>4</v>
       </c>
-      <c r="AW16" s="7">
+      <c r="AW16" s="5">
         <v>5013504</v>
       </c>
-      <c r="AX16" s="7">
+      <c r="AX16" s="5">
         <v>1942576</v>
       </c>
-      <c r="AY16" s="7">
+      <c r="AY16" s="5">
         <v>1557331</v>
       </c>
-      <c r="AZ16" s="7">
+      <c r="AZ16" s="5">
         <v>1468973</v>
       </c>
-      <c r="BA16" s="7">
+      <c r="BA16" s="5">
         <v>1179661</v>
       </c>
-      <c r="BB16" s="7" t="s">
+      <c r="BB16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BC16" s="7" t="s">
+      <c r="BC16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BD16" s="7" t="s">
+      <c r="BD16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="BE16" s="7" t="s">
+      <c r="BE16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="BF16" s="7" t="s">
+      <c r="BF16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BG16" s="7" t="s">
+      <c r="BG16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="BH16" s="7" t="s">
+      <c r="BH16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BI16" s="7" t="s">
+      <c r="BI16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BJ16" s="8">
+      <c r="BJ16" s="6">
         <v>0.99460000000000004</v>
       </c>
-      <c r="BK16" s="7">
+      <c r="BK16" s="5">
         <v>826270</v>
       </c>
-      <c r="BL16" s="7">
+      <c r="BL16" s="5">
         <v>774144</v>
       </c>
-      <c r="BM16" s="7">
+      <c r="BM16" s="5">
         <v>8411822</v>
       </c>
-      <c r="BN16" s="7">
+      <c r="BN16" s="5">
         <v>4348416</v>
       </c>
-      <c r="BO16" s="7">
+      <c r="BO16" s="5">
         <v>320864256</v>
       </c>
-      <c r="BP16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BR16" s="7">
+      <c r="BP16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="5">
         <v>160432128</v>
       </c>
-      <c r="BS16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BT16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BU16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BV16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BW16" s="7">
-        <v>0</v>
-      </c>
-      <c r="BX16" s="8">
+      <c r="BS16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="6">
         <v>2.98E-2</v>
       </c>
-      <c r="BY16" s="8">
+      <c r="BY16" s="6">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="BZ16" s="8">
+      <c r="BZ16" s="6">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="CA16" s="8">
+      <c r="CA16" s="6">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="CB16" s="8">
+      <c r="CB16" s="6">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="CC16" s="8">
+      <c r="CC16" s="6">
         <v>3.61E-2</v>
       </c>
-      <c r="CD16" s="7">
+      <c r="CD16" s="5">
         <v>-7</v>
       </c>
-      <c r="CE16" s="7">
+      <c r="CE16" s="5">
         <v>-2</v>
       </c>
-      <c r="CF16" s="7">
+      <c r="CF16" s="5">
         <v>-2</v>
       </c>
-      <c r="CG16" s="7">
+      <c r="CG16" s="5">
         <v>-4</v>
       </c>
-      <c r="CH16" s="7">
-        <v>0</v>
-      </c>
-      <c r="CI16" s="7">
+      <c r="CH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI16" s="5">
         <v>-8</v>
       </c>
-      <c r="CJ16" s="7">
+      <c r="CJ16" s="5">
         <v>-2</v>
       </c>
-      <c r="CK16" s="7">
+      <c r="CK16" s="5">
         <v>-1</v>
       </c>
-      <c r="CL16" s="7">
+      <c r="CL16" s="5">
         <v>-2</v>
       </c>
-      <c r="CM16" s="7">
+      <c r="CM16" s="5">
         <v>13297152</v>
       </c>
-      <c r="CN16" s="7">
+      <c r="CN16" s="5">
         <v>17965810</v>
       </c>
-      <c r="CO16" s="7">
+      <c r="CO16" s="5">
         <v>15242031</v>
       </c>
-      <c r="CP16" s="7" t="s">
+      <c r="CP16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CQ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="CR16" s="8">
-        <v>0</v>
-      </c>
-      <c r="CS16" s="7" t="s">
+      <c r="CQ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="6">
+        <v>0</v>
+      </c>
+      <c r="CS16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CT16" s="8">
-        <v>0</v>
-      </c>
-      <c r="CU16" s="7" t="s">
+      <c r="CT16" s="6">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CV16" s="7">
+      <c r="CV16" s="5">
         <v>160432128</v>
       </c>
-      <c r="CW16" s="7">
-        <v>0</v>
-      </c>
-      <c r="CX16" s="7">
+      <c r="CW16" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX16" s="5">
         <v>69378048</v>
       </c>
-      <c r="CY16" s="7">
-        <v>0</v>
-      </c>
-      <c r="CZ16" s="7">
+      <c r="CY16" s="5">
+        <v>0</v>
+      </c>
+      <c r="CZ16" s="5">
         <v>1228800</v>
       </c>
-      <c r="DA16" s="7">
+      <c r="DA16" s="5">
         <v>159203328</v>
       </c>
-      <c r="DB16" s="7">
+      <c r="DB16" s="5">
         <v>32956416</v>
       </c>
-      <c r="DC16" s="7">
-        <v>0</v>
-      </c>
-      <c r="DD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="DE16" s="7">
-        <v>0</v>
-      </c>
-      <c r="DF16" s="7">
-        <v>0</v>
-      </c>
-      <c r="DG16" s="7">
+      <c r="DC16" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE16" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF16" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG16" s="5">
         <v>1468416</v>
       </c>
-      <c r="DH16" s="7">
+      <c r="DH16" s="5">
         <v>1179648</v>
       </c>
-      <c r="DI16" s="7">
+      <c r="DI16" s="5">
         <v>156</v>
       </c>
-      <c r="DJ16" s="7" t="s">
+      <c r="DJ16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="DK16" s="7">
-        <v>0</v>
-      </c>
-      <c r="DL16" s="7">
+      <c r="DK16" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL16" s="5">
         <v>1016007</v>
       </c>
-      <c r="DM16" s="7" t="s">
+      <c r="DM16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="DN16" s="8">
+      <c r="DN16" s="6">
         <v>0.35780000000000001</v>
       </c>
-      <c r="DO16" s="8">
+      <c r="DO16" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="DP16" s="8">
+      <c r="DP16" s="6">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="DQ16" s="8">
-        <v>0</v>
-      </c>
-      <c r="DR16" s="8">
+      <c r="DQ16" s="6">
+        <v>0</v>
+      </c>
+      <c r="DR16" s="6">
         <v>0.1547</v>
       </c>
-      <c r="DS16" s="8">
+      <c r="DS16" s="6">
         <v>0.2109</v>
       </c>
-      <c r="DT16" s="7">
+      <c r="DT16" s="5">
         <v>14.077347</v>
       </c>
-      <c r="DU16" s="7" t="s">
+      <c r="DU16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="DV16" s="8">
-        <v>0</v>
-      </c>
-      <c r="DW16" s="8">
-        <v>0</v>
-      </c>
-      <c r="DX16" s="8">
+      <c r="DV16" s="6">
+        <v>0</v>
+      </c>
+      <c r="DW16" s="6">
+        <v>0</v>
+      </c>
+      <c r="DX16" s="6">
         <v>0.995</v>
       </c>
-      <c r="DY16" s="7">
+      <c r="DY16" s="5">
         <v>1.010759</v>
       </c>
-      <c r="DZ16" s="7">
+      <c r="DZ16" s="5">
         <v>0.48599300000000001</v>
       </c>
-      <c r="EA16" s="7" t="s">
+      <c r="EA16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="EB16" s="7" t="s">
+      <c r="EB16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="EC16" s="8">
+      <c r="EC16" s="6">
         <v>0.995</v>
       </c>
-      <c r="ED16" s="7">
+      <c r="ED16" s="5">
         <v>1.010759</v>
       </c>
-      <c r="EE16" s="7">
+      <c r="EE16" s="5">
         <v>0.46999099999999999</v>
       </c>
-      <c r="EF16" s="7">
+      <c r="EF16" s="5">
         <v>0.37365599999999999</v>
       </c>
-      <c r="EG16" s="7">
+      <c r="EG16" s="5">
         <v>4.8162999999999997E-2</v>
       </c>
-      <c r="EH16" s="7">
-        <v>0</v>
-      </c>
-      <c r="EI16" s="8">
+      <c r="EH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI16" s="6">
         <v>1</v>
       </c>
-      <c r="EJ16" s="7" t="s">
+      <c r="EJ16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="EK16" s="7" t="s">
+      <c r="EK16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="EL16" s="7" t="s">
+      <c r="EL16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="EM16" s="7" t="s">
+      <c r="EM16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="EN16" s="7" t="s">
+      <c r="EN16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="EO16" s="7">
-        <v>0</v>
-      </c>
-      <c r="EP16" s="8">
+      <c r="EO16" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP16" s="6">
         <v>0.25</v>
       </c>
-      <c r="EQ16" s="8">
+      <c r="EQ16" s="6">
         <v>1</v>
       </c>
-      <c r="ER16" s="8">
+      <c r="ER16" s="6">
         <v>1</v>
       </c>
-      <c r="ES16" s="8">
+      <c r="ES16" s="6">
         <v>0.1933</v>
       </c>
-      <c r="ET16" s="8">
+      <c r="ET16" s="6">
         <v>0.98080000000000001</v>
       </c>
-      <c r="EU16" s="7" t="s">
+      <c r="EU16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="EV16" s="7" t="s">
+      <c r="EV16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="EW16" s="8">
-        <v>0</v>
-      </c>
-      <c r="EX16" s="8">
+      <c r="EW16" s="6">
+        <v>0</v>
+      </c>
+      <c r="EX16" s="6">
         <v>1</v>
       </c>
-      <c r="EY16" s="7" t="s">
+      <c r="EY16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EZ16" s="7">
+      <c r="EZ16" s="5">
         <v>1.4857610000000001</v>
       </c>
-      <c r="FA16" s="7">
+      <c r="FA16" s="5">
         <v>372</v>
       </c>
-      <c r="FB16" s="8">
+      <c r="FB16" s="6">
         <v>0.33090000000000003</v>
       </c>
-      <c r="FC16" s="7">
-        <v>0</v>
-      </c>
-      <c r="FD16" s="7">
-        <v>0</v>
-      </c>
-      <c r="FE16" s="7">
+      <c r="FC16" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE16" s="5">
         <v>2</v>
       </c>
-      <c r="FF16" s="7">
+      <c r="FF16" s="5">
         <v>2.0003350000000002</v>
       </c>
-      <c r="FG16" s="7">
+      <c r="FG16" s="5">
         <v>2</v>
       </c>
-      <c r="FH16" s="7">
+      <c r="FH16" s="5">
         <v>2</v>
       </c>
-      <c r="FI16" s="7">
-        <v>0</v>
-      </c>
-      <c r="FJ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="FK16" s="7">
+      <c r="FI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK16" s="5">
         <v>9510912</v>
       </c>
-      <c r="FL16" s="7">
+      <c r="FL16" s="5">
         <v>737429</v>
       </c>
-      <c r="FM16" s="7">
+      <c r="FM16" s="5">
         <v>731136</v>
       </c>
-      <c r="FN16" s="7">
+      <c r="FN16" s="5">
         <v>589824</v>
       </c>
-      <c r="FO16" s="7">
-        <v>0</v>
-      </c>
-      <c r="FP16" s="7">
+      <c r="FO16" s="5">
+        <v>0</v>
+      </c>
+      <c r="FP16" s="5">
         <v>4</v>
       </c>
-      <c r="FQ16" s="7">
+      <c r="FQ16" s="5">
         <v>5013504</v>
       </c>
-      <c r="FR16" s="7">
+      <c r="FR16" s="5">
         <v>1691322</v>
       </c>
-      <c r="FS16" s="7">
+      <c r="FS16" s="5">
         <v>1499442</v>
       </c>
-      <c r="FT16" s="7">
+      <c r="FT16" s="5">
         <v>1462956</v>
       </c>
-      <c r="FU16" s="7">
+      <c r="FU16" s="5">
         <v>1179662</v>
       </c>
-      <c r="FV16" s="7" t="s">
+      <c r="FV16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="FW16" s="7" t="s">
+      <c r="FW16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="FX16" s="7" t="s">
+      <c r="FX16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="FY16" s="7" t="s">
+      <c r="FY16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="FZ16" s="7" t="s">
+      <c r="FZ16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="GA16" s="7" t="s">
+      <c r="GA16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="GB16" s="7" t="s">
+      <c r="GB16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="GC16" s="7" t="s">
+      <c r="GC16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="GD16" s="8">
+      <c r="GD16" s="6">
         <v>0.99980000000000002</v>
       </c>
-      <c r="GE16" s="7">
+      <c r="GE16" s="5">
         <v>753836</v>
       </c>
-      <c r="GF16" s="7">
+      <c r="GF16" s="5">
         <v>700416</v>
       </c>
-      <c r="GG16" s="7">
+      <c r="GG16" s="5">
         <v>12503815</v>
       </c>
-      <c r="GH16" s="7">
+      <c r="GH16" s="5">
         <v>6414336</v>
       </c>
-      <c r="GI16" s="7">
+      <c r="GI16" s="5">
         <v>320864256</v>
       </c>
-      <c r="GJ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="GK16" s="7">
-        <v>0</v>
-      </c>
-      <c r="GL16" s="7">
+      <c r="GJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="GK16" s="5">
+        <v>0</v>
+      </c>
+      <c r="GL16" s="5">
         <v>160432128</v>
       </c>
-      <c r="GM16" s="7">
-        <v>0</v>
-      </c>
-      <c r="GN16" s="7">
-        <v>0</v>
-      </c>
-      <c r="GO16" s="7">
-        <v>0</v>
-      </c>
-      <c r="GP16" s="7">
-        <v>0</v>
-      </c>
-      <c r="GQ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="GR16" s="8">
+      <c r="GM16" s="5">
+        <v>0</v>
+      </c>
+      <c r="GN16" s="5">
+        <v>0</v>
+      </c>
+      <c r="GO16" s="5">
+        <v>0</v>
+      </c>
+      <c r="GP16" s="5">
+        <v>0</v>
+      </c>
+      <c r="GQ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="GR16" s="6">
         <v>1.11E-2</v>
       </c>
-      <c r="GS16" s="8">
+      <c r="GS16" s="6">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="GT16" s="8">
+      <c r="GT16" s="6">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="GU16" s="8">
+      <c r="GU16" s="6">
         <v>2.3E-3</v>
       </c>
-      <c r="GV16" s="8">
+      <c r="GV16" s="6">
         <v>4.53E-2</v>
       </c>
-      <c r="GW16" s="8">
+      <c r="GW16" s="6">
         <v>0.01</v>
       </c>
-      <c r="GX16" s="7">
+      <c r="GX16" s="5">
         <v>-8</v>
       </c>
-      <c r="GY16" s="7">
+      <c r="GY16" s="5">
         <v>-2</v>
       </c>
-      <c r="GZ16" s="7">
+      <c r="GZ16" s="5">
         <v>-1</v>
       </c>
-      <c r="HA16" s="7">
+      <c r="HA16" s="5">
         <v>-3</v>
       </c>
-      <c r="HB16" s="7">
+      <c r="HB16" s="5">
         <v>-1</v>
       </c>
-      <c r="HC16" s="7">
+      <c r="HC16" s="5">
         <v>-9</v>
       </c>
-      <c r="HD16" s="7">
+      <c r="HD16" s="5">
         <v>-2</v>
       </c>
-      <c r="HE16" s="7">
+      <c r="HE16" s="5">
         <v>-1</v>
       </c>
-      <c r="HF16" s="7">
+      <c r="HF16" s="5">
         <v>-1</v>
       </c>
-      <c r="HG16" s="7">
+      <c r="HG16" s="5">
         <v>13713408</v>
       </c>
-      <c r="HH16" s="7">
+      <c r="HH16" s="5">
         <v>20158580</v>
       </c>
-      <c r="HI16" s="7">
+      <c r="HI16" s="5">
         <v>17959008</v>
       </c>
-      <c r="HJ16" s="7" t="s">
+      <c r="HJ16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HK16" s="7">
-        <v>0</v>
-      </c>
-      <c r="HL16" s="8">
-        <v>0</v>
-      </c>
-      <c r="HM16" s="7" t="s">
+      <c r="HK16" s="5">
+        <v>0</v>
+      </c>
+      <c r="HL16" s="6">
+        <v>0</v>
+      </c>
+      <c r="HM16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HN16" s="8">
-        <v>0</v>
-      </c>
-      <c r="HO16" s="7" t="s">
+      <c r="HN16" s="6">
+        <v>0</v>
+      </c>
+      <c r="HO16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HP16" s="7">
+      <c r="HP16" s="5">
         <v>160432128</v>
       </c>
-      <c r="HQ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="HR16" s="7">
+      <c r="HQ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="HR16" s="5">
         <v>22413312</v>
       </c>
-      <c r="HS16" s="7">
-        <v>0</v>
-      </c>
-      <c r="HT16" s="7">
+      <c r="HS16" s="5">
+        <v>0</v>
+      </c>
+      <c r="HT16" s="5">
         <v>1179648</v>
       </c>
-      <c r="HU16" s="7">
+      <c r="HU16" s="5">
         <v>225214464</v>
       </c>
-      <c r="HV16" s="7">
+      <c r="HV16" s="5">
         <v>29491200</v>
       </c>
-      <c r="HW16" s="7">
-        <v>0</v>
-      </c>
-      <c r="HX16" s="7">
-        <v>0</v>
-      </c>
-      <c r="HY16" s="7">
-        <v>0</v>
-      </c>
-      <c r="HZ16" s="7">
-        <v>0</v>
-      </c>
-      <c r="IA16" s="7">
+      <c r="HW16" s="5">
+        <v>0</v>
+      </c>
+      <c r="HX16" s="5">
+        <v>0</v>
+      </c>
+      <c r="HY16" s="5">
+        <v>0</v>
+      </c>
+      <c r="HZ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="IA16" s="5">
         <v>1462272</v>
       </c>
-      <c r="IB16" s="7">
+      <c r="IB16" s="5">
         <v>1179648</v>
       </c>
-      <c r="IC16" s="7">
+      <c r="IC16" s="5">
         <v>156</v>
       </c>
-      <c r="ID16" s="7" t="s">
+      <c r="ID16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="IE16" s="7">
-        <v>0</v>
-      </c>
-      <c r="IF16" s="7">
+      <c r="IE16" s="5">
+        <v>0</v>
+      </c>
+      <c r="IF16" s="5">
         <v>831273</v>
       </c>
-      <c r="IG16" s="7" t="s">
+      <c r="IG16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="IH16" s="8">
+      <c r="IH16" s="6">
         <v>0.36530000000000001</v>
       </c>
-      <c r="II16" s="8">
+      <c r="II16" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="IJ16" s="8">
+      <c r="IJ16" s="6">
         <v>6.13E-2</v>
       </c>
-      <c r="IK16" s="8">
-        <v>0</v>
-      </c>
-      <c r="IL16" s="8">
+      <c r="IK16" s="6">
+        <v>0</v>
+      </c>
+      <c r="IL16" s="6">
         <v>0.29380000000000001</v>
       </c>
-      <c r="IM16" s="8">
+      <c r="IM16" s="6">
         <v>0.18160000000000001</v>
       </c>
-      <c r="IN16" s="7">
+      <c r="IN16" s="5">
         <v>6.6996250000000002</v>
       </c>
-      <c r="IO16" s="7" t="s">
+      <c r="IO16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="IP16" s="7"/>
+      <c r="IP16" s="5"/>
     </row>
-    <row r="17" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="8">
-        <v>0</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
         <v>0.99270000000000003</v>
       </c>
       <c r="E17" s="7">
         <v>1.199716</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>0.96729900000000002</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>0.99270000000000003</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>1.199716</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <v>0.39787400000000001</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>0.26713199999999998</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>5.7798000000000002E-2</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="8">
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="6">
         <v>0.25</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="6">
         <v>1</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="6">
         <v>1</v>
       </c>
-      <c r="Y17" s="8">
+      <c r="Y17" s="12">
         <v>0.1178</v>
       </c>
-      <c r="Z17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="7" t="s">
+      <c r="Z17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="7" t="s">
+      <c r="AB17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC17" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="8">
+      <c r="AC17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="6">
         <v>1</v>
       </c>
-      <c r="AE17" s="7" t="s">
+      <c r="AE17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AF17" s="5">
         <v>1.677114</v>
       </c>
-      <c r="AG17" s="7">
+      <c r="AG17" s="5">
         <v>310.70833299999998</v>
       </c>
-      <c r="AH17" s="8">
+      <c r="AH17" s="6">
         <v>0.33210000000000001</v>
       </c>
-      <c r="AI17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="7">
+      <c r="AI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="5">
         <v>2</v>
       </c>
-      <c r="AL17" s="7">
+      <c r="AL17" s="5">
         <v>2.000032</v>
       </c>
-      <c r="AM17" s="7">
+      <c r="AM17" s="5">
         <v>2</v>
       </c>
-      <c r="AN17" s="7">
+      <c r="AN17" s="5">
         <v>2</v>
       </c>
-      <c r="AO17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="7">
+      <c r="AO17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="5">
         <v>5382144</v>
       </c>
-      <c r="AR17" s="7">
+      <c r="AR17" s="5">
         <v>737289</v>
       </c>
-      <c r="AS17" s="7">
+      <c r="AS17" s="5">
         <v>734208</v>
       </c>
-      <c r="AT17" s="7">
+      <c r="AT17" s="5">
         <v>589824</v>
       </c>
-      <c r="AU17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="7">
+      <c r="AU17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="5">
         <v>4</v>
       </c>
-      <c r="AW17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="7">
+      <c r="AW17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="5">
         <v>1928335</v>
       </c>
-      <c r="AY17" s="7">
+      <c r="AY17" s="5">
         <v>1546860</v>
       </c>
-      <c r="AZ17" s="7">
+      <c r="AZ17" s="5">
         <v>1468770</v>
       </c>
-      <c r="BA17" s="7">
+      <c r="BA17" s="5">
         <v>1179710</v>
       </c>
-      <c r="BB17" s="7" t="s">
+      <c r="BB17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BC17" s="7" t="s">
+      <c r="BC17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BD17" s="7" t="s">
+      <c r="BD17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="BE17" s="7" t="s">
+      <c r="BE17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BF17" s="7" t="s">
+      <c r="BF17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BG17" s="7" t="s">
+      <c r="BG17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BH17" s="7" t="s">
+      <c r="BH17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BI17" s="7" t="s">
+      <c r="BI17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BJ17" s="8">
+      <c r="BJ17" s="6">
         <v>0.99370000000000003</v>
       </c>
-      <c r="BK17" s="7">
+      <c r="BK17" s="5">
         <v>209268</v>
       </c>
-      <c r="BL17" s="7">
+      <c r="BL17" s="5">
         <v>147456</v>
       </c>
-      <c r="BM17" s="7">
+      <c r="BM17" s="5">
         <v>7779641</v>
       </c>
-      <c r="BN17" s="7">
+      <c r="BN17" s="5">
         <v>3721728</v>
       </c>
-      <c r="BO17" s="7">
+      <c r="BO17" s="5">
         <v>320864256</v>
       </c>
-      <c r="BP17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BR17" s="7">
+      <c r="BP17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="5">
         <v>160432128</v>
       </c>
-      <c r="BS17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BT17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BU17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BV17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BW17" s="7">
-        <v>0</v>
-      </c>
-      <c r="BX17" s="8">
+      <c r="BS17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="6">
         <v>2.52E-2</v>
       </c>
-      <c r="BY17" s="8">
+      <c r="BY17" s="6">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="BZ17" s="8">
+      <c r="BZ17" s="6">
         <v>3.04E-2</v>
       </c>
-      <c r="CA17" s="8">
-        <v>0</v>
-      </c>
-      <c r="CB17" s="8">
+      <c r="CA17" s="6">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="6">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="CC17" s="8">
+      <c r="CC17" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="CD17" s="7">
+      <c r="CD17" s="5">
         <v>-7</v>
       </c>
-      <c r="CE17" s="7">
+      <c r="CE17" s="5">
         <v>-2</v>
       </c>
-      <c r="CF17" s="7">
-        <v>0</v>
-      </c>
-      <c r="CG17" s="7">
+      <c r="CF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG17" s="5">
         <v>-4</v>
       </c>
-      <c r="CH17" s="7">
+      <c r="CH17" s="5">
         <v>-1</v>
       </c>
-      <c r="CI17" s="7">
+      <c r="CI17" s="5">
         <v>-9</v>
       </c>
-      <c r="CJ17" s="7">
+      <c r="CJ17" s="5">
         <v>-2</v>
       </c>
-      <c r="CK17" s="7">
+      <c r="CK17" s="5">
         <v>-1</v>
       </c>
-      <c r="CL17" s="7">
-        <v>0</v>
-      </c>
-      <c r="CM17" s="7">
+      <c r="CL17" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="5">
         <v>11453952</v>
       </c>
-      <c r="CN17" s="7">
+      <c r="CN17" s="5">
         <v>16011185</v>
       </c>
-      <c r="CO17" s="7">
+      <c r="CO17" s="5">
         <v>12682926</v>
       </c>
-      <c r="CP17" s="7" t="s">
+      <c r="CP17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CQ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="CR17" s="8">
-        <v>0</v>
-      </c>
-      <c r="CS17" s="7" t="s">
+      <c r="CQ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="6">
+        <v>0</v>
+      </c>
+      <c r="CS17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CT17" s="8">
-        <v>0</v>
-      </c>
-      <c r="CU17" s="7" t="s">
+      <c r="CT17" s="6">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CV17" s="7">
+      <c r="CV17" s="5">
         <v>160432128</v>
       </c>
-      <c r="CW17" s="7">
-        <v>0</v>
-      </c>
-      <c r="CX17" s="7">
+      <c r="CW17" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX17" s="5">
         <v>69378048</v>
       </c>
-      <c r="CY17" s="7">
-        <v>0</v>
-      </c>
-      <c r="CZ17" s="7">
+      <c r="CY17" s="5">
+        <v>0</v>
+      </c>
+      <c r="CZ17" s="5">
         <v>1228800</v>
       </c>
-      <c r="DA17" s="7">
+      <c r="DA17" s="5">
         <v>119095296</v>
       </c>
-      <c r="DB17" s="7">
+      <c r="DB17" s="5">
         <v>14082048</v>
       </c>
-      <c r="DC17" s="7">
-        <v>0</v>
-      </c>
-      <c r="DD17" s="7">
-        <v>0</v>
-      </c>
-      <c r="DE17" s="7">
-        <v>0</v>
-      </c>
-      <c r="DF17" s="7">
-        <v>0</v>
-      </c>
-      <c r="DG17" s="7">
+      <c r="DC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG17" s="5">
         <v>1468416</v>
       </c>
-      <c r="DH17" s="7">
+      <c r="DH17" s="5">
         <v>1179697</v>
       </c>
-      <c r="DI17" s="7">
-        <v>0</v>
-      </c>
-      <c r="DJ17" s="7" t="s">
+      <c r="DI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="DK17" s="7">
-        <v>0</v>
-      </c>
-      <c r="DL17" s="7">
+      <c r="DK17" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL17" s="5">
         <v>999816</v>
       </c>
-      <c r="DM17" s="7" t="s">
+      <c r="DM17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="DN17" s="8">
+      <c r="DN17" s="6">
         <v>0.3906</v>
       </c>
-      <c r="DO17" s="8">
+      <c r="DO17" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="DP17" s="8">
+      <c r="DP17" s="6">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="DQ17" s="8">
-        <v>0</v>
-      </c>
-      <c r="DR17" s="8">
+      <c r="DQ17" s="6">
+        <v>0</v>
+      </c>
+      <c r="DR17" s="6">
         <v>0.156</v>
       </c>
-      <c r="DS17" s="8">
+      <c r="DS17" s="6">
         <v>0.22570000000000001</v>
       </c>
-      <c r="DT17" s="7">
+      <c r="DT17" s="5">
         <v>14.780333000000001</v>
       </c>
-      <c r="DU17" s="7" t="s">
+      <c r="DU17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="DV17" s="8">
-        <v>0</v>
-      </c>
-      <c r="DW17" s="8">
-        <v>0</v>
-      </c>
-      <c r="DX17" s="8">
+      <c r="DV17" s="6">
+        <v>0</v>
+      </c>
+      <c r="DW17" s="6">
+        <v>0</v>
+      </c>
+      <c r="DX17" s="6">
         <v>0.99470000000000003</v>
       </c>
-      <c r="DY17" s="7">
+      <c r="DY17" s="5">
         <v>0.88333799999999996</v>
       </c>
-      <c r="DZ17" s="7">
+      <c r="DZ17" s="5">
         <v>0.484205</v>
       </c>
-      <c r="EA17" s="7" t="s">
+      <c r="EA17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="EB17" s="7" t="s">
+      <c r="EB17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="EC17" s="8">
+      <c r="EC17" s="6">
         <v>0.99470000000000003</v>
       </c>
-      <c r="ED17" s="7">
+      <c r="ED17" s="5">
         <v>0.88333799999999996</v>
       </c>
-      <c r="EE17" s="7">
+      <c r="EE17" s="5">
         <v>0.54399699999999995</v>
       </c>
-      <c r="EF17" s="7">
+      <c r="EF17" s="5">
         <v>0.43034099999999997</v>
       </c>
-      <c r="EG17" s="7">
+      <c r="EG17" s="5">
         <v>5.5469999999999998E-2</v>
       </c>
-      <c r="EH17" s="7">
-        <v>0</v>
-      </c>
-      <c r="EI17" s="8">
-        <v>0</v>
-      </c>
-      <c r="EJ17" s="7" t="s">
+      <c r="EH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI17" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EK17" s="7" t="s">
+      <c r="EK17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="EL17" s="7" t="s">
+      <c r="EL17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="EM17" s="7" t="s">
+      <c r="EM17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="EN17" s="7" t="s">
+      <c r="EN17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="EO17" s="7">
-        <v>0</v>
-      </c>
-      <c r="EP17" s="8">
+      <c r="EO17" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP17" s="6">
         <v>0.25</v>
       </c>
-      <c r="EQ17" s="8">
+      <c r="EQ17" s="6">
         <v>1</v>
       </c>
-      <c r="ER17" s="8">
+      <c r="ER17" s="6">
         <v>1</v>
       </c>
-      <c r="ES17" s="8">
+      <c r="ES17" s="6">
         <v>0.1933</v>
       </c>
-      <c r="ET17" s="8">
-        <v>0</v>
-      </c>
-      <c r="EU17" s="7" t="s">
+      <c r="ET17" s="6">
+        <v>0</v>
+      </c>
+      <c r="EU17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="EV17" s="7" t="s">
+      <c r="EV17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EW17" s="8">
-        <v>0</v>
-      </c>
-      <c r="EX17" s="8">
+      <c r="EW17" s="6">
+        <v>0</v>
+      </c>
+      <c r="EX17" s="6">
         <v>1</v>
       </c>
-      <c r="EY17" s="7" t="s">
+      <c r="EY17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EZ17" s="7">
+      <c r="EZ17" s="5">
         <v>1.3641589999999999</v>
       </c>
-      <c r="FA17" s="7">
+      <c r="FA17" s="5">
         <v>323</v>
       </c>
-      <c r="FB17" s="8">
+      <c r="FB17" s="6">
         <v>0.28560000000000002</v>
       </c>
-      <c r="FC17" s="7">
-        <v>0</v>
-      </c>
-      <c r="FD17" s="7">
-        <v>0</v>
-      </c>
-      <c r="FE17" s="7">
+      <c r="FC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD17" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE17" s="5">
         <v>2</v>
       </c>
-      <c r="FF17" s="7">
+      <c r="FF17" s="5">
         <v>2.0004490000000001</v>
       </c>
-      <c r="FG17" s="7">
+      <c r="FG17" s="5">
         <v>2</v>
       </c>
-      <c r="FH17" s="7">
+      <c r="FH17" s="5">
         <v>2</v>
       </c>
-      <c r="FI17" s="7">
-        <v>0</v>
-      </c>
-      <c r="FJ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="FK17" s="7">
+      <c r="FI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK17" s="5">
         <v>9510912</v>
       </c>
-      <c r="FL17" s="7">
+      <c r="FL17" s="5">
         <v>737424</v>
       </c>
-      <c r="FM17" s="7">
+      <c r="FM17" s="5">
         <v>731136</v>
       </c>
-      <c r="FN17" s="7">
+      <c r="FN17" s="5">
         <v>589824</v>
       </c>
-      <c r="FO17" s="7">
-        <v>0</v>
-      </c>
-      <c r="FP17" s="7">
+      <c r="FO17" s="5">
+        <v>0</v>
+      </c>
+      <c r="FP17" s="5">
         <v>7</v>
       </c>
-      <c r="FQ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="FR17" s="7">
+      <c r="FQ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR17" s="5">
         <v>1689557</v>
       </c>
-      <c r="FS17" s="7">
+      <c r="FS17" s="5">
         <v>1507139</v>
       </c>
-      <c r="FT17" s="7">
+      <c r="FT17" s="5">
         <v>1462739</v>
       </c>
-      <c r="FU17" s="7">
+      <c r="FU17" s="5">
         <v>1179718</v>
       </c>
-      <c r="FV17" s="7" t="s">
+      <c r="FV17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="FW17" s="7" t="s">
+      <c r="FW17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="FX17" s="7" t="s">
+      <c r="FX17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="FY17" s="7" t="s">
+      <c r="FY17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="FZ17" s="7" t="s">
+      <c r="FZ17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="GA17" s="7" t="s">
+      <c r="GA17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="GB17" s="7" t="s">
+      <c r="GB17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="GC17" s="7" t="s">
+      <c r="GC17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="GD17" s="8">
+      <c r="GD17" s="6">
         <v>0.99970000000000003</v>
       </c>
-      <c r="GE17" s="7">
+      <c r="GE17" s="5">
         <v>125881</v>
       </c>
-      <c r="GF17" s="7">
+      <c r="GF17" s="5">
         <v>73728</v>
       </c>
-      <c r="GG17" s="7">
+      <c r="GG17" s="5">
         <v>11872979</v>
       </c>
-      <c r="GH17" s="7">
+      <c r="GH17" s="5">
         <v>5787648</v>
       </c>
-      <c r="GI17" s="7">
+      <c r="GI17" s="5">
         <v>320864256</v>
       </c>
-      <c r="GJ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="GK17" s="7">
-        <v>0</v>
-      </c>
-      <c r="GL17" s="7">
+      <c r="GJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="GK17" s="5">
+        <v>0</v>
+      </c>
+      <c r="GL17" s="5">
         <v>160432128</v>
       </c>
-      <c r="GM17" s="7">
-        <v>0</v>
-      </c>
-      <c r="GN17" s="7">
-        <v>0</v>
-      </c>
-      <c r="GO17" s="7">
-        <v>0</v>
-      </c>
-      <c r="GP17" s="7">
-        <v>0</v>
-      </c>
-      <c r="GQ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="GR17" s="8">
+      <c r="GM17" s="5">
+        <v>0</v>
+      </c>
+      <c r="GN17" s="5">
+        <v>0</v>
+      </c>
+      <c r="GO17" s="5">
+        <v>0</v>
+      </c>
+      <c r="GP17" s="5">
+        <v>0</v>
+      </c>
+      <c r="GQ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="GR17" s="6">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="GS17" s="8">
+      <c r="GS17" s="6">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="GT17" s="8">
-        <v>0</v>
-      </c>
-      <c r="GU17" s="8">
-        <v>0</v>
-      </c>
-      <c r="GV17" s="8">
+      <c r="GT17" s="6">
+        <v>0</v>
+      </c>
+      <c r="GU17" s="6">
+        <v>0</v>
+      </c>
+      <c r="GV17" s="6">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="GW17" s="8">
+      <c r="GW17" s="6">
         <v>6.6E-3</v>
       </c>
-      <c r="GX17" s="7">
+      <c r="GX17" s="5">
         <v>-8</v>
       </c>
-      <c r="GY17" s="7">
+      <c r="GY17" s="5">
         <v>-2</v>
       </c>
-      <c r="GZ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="HA17" s="7">
+      <c r="GZ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="HA17" s="5">
         <v>-3</v>
       </c>
-      <c r="HB17" s="7">
+      <c r="HB17" s="5">
         <v>-1</v>
       </c>
-      <c r="HC17" s="7">
+      <c r="HC17" s="5">
         <v>-9</v>
       </c>
-      <c r="HD17" s="7">
+      <c r="HD17" s="5">
         <v>-2</v>
       </c>
-      <c r="HE17" s="7">
+      <c r="HE17" s="5">
         <v>-1</v>
       </c>
-      <c r="HF17" s="7">
-        <v>0</v>
-      </c>
-      <c r="HG17" s="7">
+      <c r="HF17" s="5">
+        <v>0</v>
+      </c>
+      <c r="HG17" s="5">
         <v>11907072</v>
       </c>
-      <c r="HH17" s="7">
+      <c r="HH17" s="5">
         <v>18384479</v>
       </c>
-      <c r="HI17" s="7">
+      <c r="HI17" s="5">
         <v>15397977</v>
       </c>
-      <c r="HJ17" s="7" t="s">
+      <c r="HJ17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HK17" s="7">
-        <v>0</v>
-      </c>
-      <c r="HL17" s="8">
-        <v>0</v>
-      </c>
-      <c r="HM17" s="7" t="s">
+      <c r="HK17" s="5">
+        <v>0</v>
+      </c>
+      <c r="HL17" s="6">
+        <v>0</v>
+      </c>
+      <c r="HM17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HN17" s="8">
-        <v>0</v>
-      </c>
-      <c r="HO17" s="7" t="s">
+      <c r="HN17" s="6">
+        <v>0</v>
+      </c>
+      <c r="HO17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HP17" s="7">
+      <c r="HP17" s="5">
         <v>160432128</v>
       </c>
-      <c r="HQ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="HR17" s="7">
+      <c r="HQ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="HR17" s="5">
         <v>22413312</v>
       </c>
-      <c r="HS17" s="7">
-        <v>0</v>
-      </c>
-      <c r="HT17" s="7">
+      <c r="HS17" s="5">
+        <v>0</v>
+      </c>
+      <c r="HT17" s="5">
         <v>1179648</v>
       </c>
-      <c r="HU17" s="7">
+      <c r="HU17" s="5">
         <v>185106432</v>
       </c>
-      <c r="HV17" s="7">
+      <c r="HV17" s="5">
         <v>11796480</v>
       </c>
-      <c r="HW17" s="7">
-        <v>0</v>
-      </c>
-      <c r="HX17" s="7">
-        <v>0</v>
-      </c>
-      <c r="HY17" s="7">
-        <v>0</v>
-      </c>
-      <c r="HZ17" s="7">
-        <v>0</v>
-      </c>
-      <c r="IA17" s="7">
+      <c r="HW17" s="5">
+        <v>0</v>
+      </c>
+      <c r="HX17" s="5">
+        <v>0</v>
+      </c>
+      <c r="HY17" s="5">
+        <v>0</v>
+      </c>
+      <c r="HZ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="IA17" s="5">
         <v>1462272</v>
       </c>
-      <c r="IB17" s="7">
+      <c r="IB17" s="5">
         <v>1179701</v>
       </c>
-      <c r="IC17" s="7">
-        <v>0</v>
-      </c>
-      <c r="ID17" s="7" t="s">
+      <c r="IC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="ID17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="IE17" s="7">
-        <v>0</v>
-      </c>
-      <c r="IF17" s="7">
+      <c r="IE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="IF17" s="5">
         <v>837194</v>
       </c>
-      <c r="IG17" s="7" t="s">
+      <c r="IG17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="IH17" s="8">
+      <c r="IH17" s="6">
         <v>0.37740000000000001</v>
       </c>
-      <c r="II17" s="8">
+      <c r="II17" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="IJ17" s="8">
+      <c r="IJ17" s="6">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="IK17" s="8">
-        <v>0</v>
-      </c>
-      <c r="IL17" s="8">
+      <c r="IK17" s="6">
+        <v>0</v>
+      </c>
+      <c r="IL17" s="6">
         <v>0.27350000000000002</v>
       </c>
-      <c r="IM17" s="8">
+      <c r="IM17" s="6">
         <v>0.18479999999999999</v>
       </c>
-      <c r="IN17" s="7">
+      <c r="IN17" s="5">
         <v>6.6489649999999996</v>
       </c>
-      <c r="IO17" s="7" t="s">
+      <c r="IO17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="IP17" s="7"/>
+      <c r="IP17" s="5"/>
     </row>
-    <row r="18" spans="1:250" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:250" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="8">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
         <v>0.99560000000000004</v>
       </c>
       <c r="E18" s="7">
         <v>0.64963400000000004</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>0.48770999999999998</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>0.99560000000000004</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>0.64963400000000004</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>0.57977400000000001</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>0.385542</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <v>4.3173000000000003E-2</v>
       </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="U18" s="7">
-        <v>0</v>
-      </c>
-      <c r="V18" s="8">
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="6">
         <v>0.34889999999999999</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="6">
         <v>2.8946999999999998</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="6">
         <v>1</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y18" s="12">
         <v>0.70279999999999998</v>
       </c>
-      <c r="Z18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7" t="s">
+      <c r="Z18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AB18" s="7" t="s">
+      <c r="AB18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC18" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="8">
+      <c r="AC18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="6">
         <v>1</v>
       </c>
-      <c r="AE18" s="7" t="s">
+      <c r="AE18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AF18" s="5">
         <v>1.0262500000000001</v>
       </c>
-      <c r="AG18" s="7">
+      <c r="AG18" s="5">
         <v>415</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AH18" s="6">
         <v>0.22570000000000001</v>
       </c>
-      <c r="AI18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="7">
+      <c r="AI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="5">
         <v>1.992537</v>
       </c>
-      <c r="AL18" s="7">
+      <c r="AL18" s="5">
         <v>2.0000070000000001</v>
       </c>
-      <c r="AM18" s="7">
+      <c r="AM18" s="5">
         <v>1.127273</v>
       </c>
-      <c r="AN18" s="7">
+      <c r="AN18" s="5">
         <v>2</v>
       </c>
-      <c r="AO18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="7">
+      <c r="AO18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="5">
         <v>9842688</v>
       </c>
-      <c r="AR18" s="7">
+      <c r="AR18" s="5">
         <v>1990664</v>
       </c>
-      <c r="AS18" s="7">
+      <c r="AS18" s="5">
         <v>3237888</v>
       </c>
-      <c r="AT18" s="7">
+      <c r="AT18" s="5">
         <v>589824</v>
       </c>
-      <c r="AU18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="7">
+      <c r="AU18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="5">
         <v>6</v>
       </c>
-      <c r="AW18" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="7">
+      <c r="AW18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="5">
         <v>1652699</v>
       </c>
-      <c r="AY18" s="7">
+      <c r="AY18" s="5">
         <v>1547728</v>
       </c>
-      <c r="AZ18" s="7">
+      <c r="AZ18" s="5">
         <v>3969458</v>
       </c>
-      <c r="BA18" s="7">
+      <c r="BA18" s="5">
         <v>1179662</v>
       </c>
-      <c r="BB18" s="7" t="s">
+      <c r="BB18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BC18" s="7" t="s">
+      <c r="BC18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BD18" s="7" t="s">
+      <c r="BD18" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BE18" s="7" t="s">
+      <c r="BE18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BF18" s="7" t="s">
+      <c r="BF18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BG18" s="7" t="s">
+      <c r="BG18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BH18" s="7" t="s">
+      <c r="BH18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="BI18" s="7" t="s">
+      <c r="BI18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BJ18" s="8">
+      <c r="BJ18" s="6">
         <v>0.99980000000000002</v>
       </c>
-      <c r="BK18" s="7">
+      <c r="BK18" s="5">
         <v>136484</v>
       </c>
-      <c r="BL18" s="7">
+      <c r="BL18" s="5">
         <v>73728</v>
       </c>
-      <c r="BM18" s="7">
+      <c r="BM18" s="5">
         <v>17483508</v>
       </c>
-      <c r="BN18" s="7">
+      <c r="BN18" s="5">
         <v>9105408</v>
       </c>
-      <c r="BO18" s="7">
+      <c r="BO18" s="5">
         <v>320864256</v>
       </c>
-      <c r="BP18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BQ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BR18" s="7">
+      <c r="BP18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="5">
         <v>160432128</v>
       </c>
-      <c r="BS18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BT18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BU18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BV18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BW18" s="7">
-        <v>0</v>
-      </c>
-      <c r="BX18" s="8">
+      <c r="BS18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="5">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="6">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="BY18" s="8">
+      <c r="BY18" s="6">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="BZ18" s="8">
+      <c r="BZ18" s="6">
         <v>1.8E-3</v>
       </c>
-      <c r="CA18" s="8">
-        <v>0</v>
-      </c>
-      <c r="CB18" s="8">
+      <c r="CA18" s="6">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="6">
         <v>0.10059999999999999</v>
       </c>
-      <c r="CC18" s="8">
+      <c r="CC18" s="6">
         <v>6.3E-3</v>
       </c>
-      <c r="CD18" s="7">
+      <c r="CD18" s="5">
         <v>-6</v>
       </c>
-      <c r="CE18" s="7">
+      <c r="CE18" s="5">
         <v>-2</v>
       </c>
-      <c r="CF18" s="7">
-        <v>0</v>
-      </c>
-      <c r="CG18" s="7">
+      <c r="CF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="CG18" s="5">
         <v>-2</v>
       </c>
-      <c r="CH18" s="7">
-        <v>0</v>
-      </c>
-      <c r="CI18" s="7">
+      <c r="CH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="5">
         <v>-8</v>
       </c>
-      <c r="CJ18" s="7">
+      <c r="CJ18" s="5">
         <v>-1</v>
       </c>
-      <c r="CK18" s="7">
+      <c r="CK18" s="5">
         <v>-1</v>
       </c>
-      <c r="CL18" s="7">
-        <v>0</v>
-      </c>
-      <c r="CM18" s="7">
+      <c r="CL18" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM18" s="5">
         <v>15298560</v>
       </c>
-      <c r="CN18" s="7">
+      <c r="CN18" s="5">
         <v>24168259</v>
       </c>
-      <c r="CO18" s="7">
+      <c r="CO18" s="5">
         <v>21263191</v>
       </c>
-      <c r="CP18" s="7" t="s">
+      <c r="CP18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CQ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="CR18" s="8">
-        <v>0</v>
-      </c>
-      <c r="CS18" s="7" t="s">
+      <c r="CQ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR18" s="6">
+        <v>0</v>
+      </c>
+      <c r="CS18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CT18" s="8">
-        <v>0</v>
-      </c>
-      <c r="CU18" s="7" t="s">
+      <c r="CT18" s="6">
+        <v>0</v>
+      </c>
+      <c r="CU18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CV18" s="7">
+      <c r="CV18" s="5">
         <v>160432128</v>
       </c>
-      <c r="CW18" s="7">
-        <v>0</v>
-      </c>
-      <c r="CX18" s="7">
+      <c r="CW18" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX18" s="5">
         <v>22413312</v>
       </c>
-      <c r="CY18" s="7">
-        <v>0</v>
-      </c>
-      <c r="CZ18" s="7">
+      <c r="CY18" s="5">
+        <v>0</v>
+      </c>
+      <c r="CZ18" s="5">
         <v>1179648</v>
       </c>
-      <c r="DA18" s="7">
+      <c r="DA18" s="5">
         <v>291274752</v>
       </c>
-      <c r="DB18" s="7">
+      <c r="DB18" s="5">
         <v>14155776</v>
       </c>
-      <c r="DC18" s="7">
-        <v>0</v>
-      </c>
-      <c r="DD18" s="7">
-        <v>0</v>
-      </c>
-      <c r="DE18" s="7">
-        <v>0</v>
-      </c>
-      <c r="DF18" s="7">
-        <v>0</v>
-      </c>
-      <c r="DG18" s="7">
+      <c r="DC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG18" s="5">
         <v>3969024</v>
       </c>
-      <c r="DH18" s="7">
+      <c r="DH18" s="5">
         <v>1179648</v>
       </c>
-      <c r="DI18" s="7">
-        <v>0</v>
-      </c>
-      <c r="DJ18" s="7" t="s">
+      <c r="DI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="DJ18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="DK18" s="7">
-        <v>0</v>
-      </c>
-      <c r="DL18" s="7">
+      <c r="DK18" s="5">
+        <v>0</v>
+      </c>
+      <c r="DL18" s="5">
         <v>841065</v>
       </c>
-      <c r="DM18" s="7" t="s">
+      <c r="DM18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="DN18" s="8">
+      <c r="DN18" s="6">
         <v>0.315</v>
       </c>
-      <c r="DO18" s="8">
+      <c r="DO18" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="DP18" s="8">
+      <c r="DP18" s="6">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="DQ18" s="8">
-        <v>0</v>
-      </c>
-      <c r="DR18" s="8">
+      <c r="DQ18" s="6">
+        <v>0</v>
+      </c>
+      <c r="DR18" s="6">
         <v>0.22750000000000001</v>
       </c>
-      <c r="DS18" s="8">
+      <c r="DS18" s="6">
         <v>0.2437</v>
       </c>
-      <c r="DT18" s="7">
+      <c r="DT18" s="5">
         <v>8.2209850000000007</v>
       </c>
-      <c r="DU18" s="7" t="s">
+      <c r="DU18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="DV18" s="8">
-        <v>0</v>
-      </c>
-      <c r="DW18" s="8">
-        <v>0</v>
-      </c>
-      <c r="DX18" s="8">
+      <c r="DV18" s="6">
+        <v>0</v>
+      </c>
+      <c r="DW18" s="6">
+        <v>0</v>
+      </c>
+      <c r="DX18" s="6">
         <v>0.995</v>
       </c>
-      <c r="DY18" s="7">
+      <c r="DY18" s="5">
         <v>0.62348800000000004</v>
       </c>
-      <c r="DZ18" s="7">
+      <c r="DZ18" s="5">
         <v>0.98118099999999997</v>
       </c>
-      <c r="EA18" s="7" t="s">
+      <c r="EA18" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="EB18" s="7" t="s">
+      <c r="EB18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="EC18" s="8">
+      <c r="EC18" s="6">
         <v>0.995</v>
       </c>
-      <c r="ED18" s="7">
+      <c r="ED18" s="5">
         <v>0.62348800000000004</v>
       </c>
-      <c r="EE18" s="7">
+      <c r="EE18" s="5">
         <v>0.64255899999999999</v>
       </c>
-      <c r="EF18" s="7">
+      <c r="EF18" s="5">
         <v>0.25825100000000001</v>
       </c>
-      <c r="EG18" s="7">
+      <c r="EG18" s="5">
         <v>4.4594000000000002E-2</v>
       </c>
-      <c r="EH18" s="7">
-        <v>0</v>
-      </c>
-      <c r="EI18" s="8">
-        <v>0</v>
-      </c>
-      <c r="EJ18" s="7" t="s">
+      <c r="EH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="EI18" s="6">
+        <v>0</v>
+      </c>
+      <c r="EJ18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EK18" s="7" t="s">
+      <c r="EK18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="EL18" s="7" t="s">
+      <c r="EL18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="EM18" s="7" t="s">
+      <c r="EM18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="EN18" s="7" t="s">
+      <c r="EN18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="EO18" s="7">
-        <v>0</v>
-      </c>
-      <c r="EP18" s="8">
+      <c r="EO18" s="5">
+        <v>0</v>
+      </c>
+      <c r="EP18" s="6">
         <v>0.40189999999999998</v>
       </c>
-      <c r="EQ18" s="8">
+      <c r="EQ18" s="6">
         <v>2.8917999999999999</v>
       </c>
-      <c r="ER18" s="8">
+      <c r="ER18" s="6">
         <v>1</v>
       </c>
-      <c r="ES18" s="8">
+      <c r="ES18" s="6">
         <v>0.65969999999999995</v>
       </c>
-      <c r="ET18" s="8">
-        <v>0</v>
-      </c>
-      <c r="EU18" s="7" t="s">
+      <c r="ET18" s="6">
+        <v>0</v>
+      </c>
+      <c r="EU18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="EV18" s="7" t="s">
+      <c r="EV18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EW18" s="8">
-        <v>0</v>
-      </c>
-      <c r="EX18" s="8">
+      <c r="EW18" s="6">
+        <v>0</v>
+      </c>
+      <c r="EX18" s="6">
         <v>1</v>
       </c>
-      <c r="EY18" s="7" t="s">
+      <c r="EY18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="EZ18" s="7">
+      <c r="EZ18" s="5">
         <v>1.017687</v>
       </c>
-      <c r="FA18" s="7">
+      <c r="FA18" s="5">
         <v>402.70833299999998</v>
       </c>
-      <c r="FB18" s="8">
+      <c r="FB18" s="6">
         <v>0.22289999999999999</v>
       </c>
-      <c r="FC18" s="7">
-        <v>0</v>
-      </c>
-      <c r="FD18" s="7">
-        <v>0</v>
-      </c>
-      <c r="FE18" s="7">
+      <c r="FC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="FD18" s="5">
+        <v>0</v>
+      </c>
+      <c r="FE18" s="5">
         <v>1.987179</v>
       </c>
-      <c r="FF18" s="7">
+      <c r="FF18" s="5">
         <v>2.0000019999999998</v>
       </c>
-      <c r="FG18" s="7">
+      <c r="FG18" s="5">
         <v>1.127739</v>
       </c>
-      <c r="FH18" s="7">
+      <c r="FH18" s="5">
         <v>2</v>
       </c>
-      <c r="FI18" s="7">
-        <v>0</v>
-      </c>
-      <c r="FJ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="FK18" s="7">
+      <c r="FI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="FJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="FK18" s="5">
         <v>5713920</v>
       </c>
-      <c r="FL18" s="7">
+      <c r="FL18" s="5">
         <v>1990659</v>
       </c>
-      <c r="FM18" s="7">
+      <c r="FM18" s="5">
         <v>3240960</v>
       </c>
-      <c r="FN18" s="7">
+      <c r="FN18" s="5">
         <v>589824</v>
       </c>
-      <c r="FO18" s="7">
-        <v>0</v>
-      </c>
-      <c r="FP18" s="7">
+      <c r="FO18" s="5">
+        <v>0</v>
+      </c>
+      <c r="FP18" s="5">
         <v>6</v>
       </c>
-      <c r="FQ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="FR18" s="7">
+      <c r="FQ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="FR18" s="5">
         <v>2024688</v>
       </c>
-      <c r="FS18" s="7">
+      <c r="FS18" s="5">
         <v>1655637</v>
       </c>
-      <c r="FT18" s="7">
+      <c r="FT18" s="5">
         <v>3975516</v>
       </c>
-      <c r="FU18" s="7">
+      <c r="FU18" s="5">
         <v>1179663</v>
       </c>
-      <c r="FV18" s="7" t="s">
+      <c r="FV18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="FW18" s="7" t="s">
+      <c r="FW18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="FX18" s="7" t="s">
+      <c r="FX18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="FY18" s="7" t="s">
+      <c r="FY18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="FZ18" s="7" t="s">
+      <c r="FZ18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="GA18" s="7" t="s">
+      <c r="GA18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="GB18" s="7" t="s">
+      <c r="GB18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="GC18" s="7" t="s">
+      <c r="GC18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="GD18" s="8">
+      <c r="GD18" s="6">
         <v>0.99509999999999998</v>
       </c>
-      <c r="GE18" s="7">
+      <c r="GE18" s="5">
         <v>246174</v>
       </c>
-      <c r="GF18" s="7">
+      <c r="GF18" s="5">
         <v>147456</v>
       </c>
-      <c r="GG18" s="7">
+      <c r="GG18" s="5">
         <v>15712116</v>
       </c>
-      <c r="GH18" s="7">
+      <c r="GH18" s="5">
         <v>7039488</v>
       </c>
-      <c r="GI18" s="7">
+      <c r="GI18" s="5">
         <v>320864256</v>
       </c>
-      <c r="GJ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="GK18" s="7">
-        <v>0</v>
-      </c>
-      <c r="GL18" s="7">
+      <c r="GJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="GK18" s="5">
+        <v>0</v>
+      </c>
+      <c r="GL18" s="5">
         <v>160432128</v>
       </c>
-      <c r="GM18" s="7">
-        <v>0</v>
-      </c>
-      <c r="GN18" s="7">
-        <v>0</v>
-      </c>
-      <c r="GO18" s="7">
-        <v>0</v>
-      </c>
-      <c r="GP18" s="7">
-        <v>0</v>
-      </c>
-      <c r="GQ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="GR18" s="8">
+      <c r="GM18" s="5">
+        <v>0</v>
+      </c>
+      <c r="GN18" s="5">
+        <v>0</v>
+      </c>
+      <c r="GO18" s="5">
+        <v>0</v>
+      </c>
+      <c r="GP18" s="5">
+        <v>0</v>
+      </c>
+      <c r="GQ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="GR18" s="6">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="GS18" s="8">
+      <c r="GS18" s="6">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="GT18" s="8">
+      <c r="GT18" s="6">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="GU18" s="8">
-        <v>0</v>
-      </c>
-      <c r="GV18" s="8">
+      <c r="GU18" s="6">
+        <v>0</v>
+      </c>
+      <c r="GV18" s="6">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="GW18" s="8">
+      <c r="GW18" s="6">
         <v>1.23E-2</v>
       </c>
-      <c r="GX18" s="7">
+      <c r="GX18" s="5">
         <v>-4</v>
       </c>
-      <c r="GY18" s="7">
+      <c r="GY18" s="5">
         <v>-2</v>
       </c>
-      <c r="GZ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HA18" s="7">
+      <c r="GZ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HA18" s="5">
         <v>-2</v>
       </c>
-      <c r="HB18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HC18" s="7">
+      <c r="HB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HC18" s="5">
         <v>-7</v>
       </c>
-      <c r="HD18" s="7">
+      <c r="HD18" s="5">
         <v>-1</v>
       </c>
-      <c r="HE18" s="7">
+      <c r="HE18" s="5">
         <v>-1</v>
       </c>
-      <c r="HF18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HG18" s="7">
+      <c r="HF18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HG18" s="5">
         <v>14845440</v>
       </c>
-      <c r="HH18" s="7">
+      <c r="HH18" s="5">
         <v>24384517</v>
       </c>
-      <c r="HI18" s="7">
+      <c r="HI18" s="5">
         <v>21367980</v>
       </c>
-      <c r="HJ18" s="7" t="s">
+      <c r="HJ18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HK18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HL18" s="8">
-        <v>0</v>
-      </c>
-      <c r="HM18" s="7" t="s">
+      <c r="HK18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HL18" s="6">
+        <v>0</v>
+      </c>
+      <c r="HM18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HN18" s="8">
-        <v>0</v>
-      </c>
-      <c r="HO18" s="7" t="s">
+      <c r="HN18" s="6">
+        <v>0</v>
+      </c>
+      <c r="HO18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="HP18" s="7">
+      <c r="HP18" s="5">
         <v>160432128</v>
       </c>
-      <c r="HQ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HR18" s="7">
+      <c r="HQ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HR18" s="5">
         <v>69378048</v>
       </c>
-      <c r="HS18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HT18" s="7">
+      <c r="HS18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HT18" s="5">
         <v>1228800</v>
       </c>
-      <c r="HU18" s="7">
+      <c r="HU18" s="5">
         <v>225263616</v>
       </c>
-      <c r="HV18" s="7">
+      <c r="HV18" s="5">
         <v>16441344</v>
       </c>
-      <c r="HW18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HX18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HY18" s="7">
-        <v>0</v>
-      </c>
-      <c r="HZ18" s="7">
-        <v>0</v>
-      </c>
-      <c r="IA18" s="7">
+      <c r="HW18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HX18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HY18" s="5">
+        <v>0</v>
+      </c>
+      <c r="HZ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="IA18" s="5">
         <v>3975168</v>
       </c>
-      <c r="IB18" s="7">
+      <c r="IB18" s="5">
         <v>1179648</v>
       </c>
-      <c r="IC18" s="7">
-        <v>0</v>
-      </c>
-      <c r="ID18" s="7" t="s">
+      <c r="IC18" s="5">
+        <v>0</v>
+      </c>
+      <c r="ID18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="IE18" s="7">
-        <v>0</v>
-      </c>
-      <c r="IF18" s="7">
+      <c r="IE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="IF18" s="5">
         <v>1148364</v>
       </c>
-      <c r="IG18" s="7" t="s">
+      <c r="IG18" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="IH18" s="8">
+      <c r="IH18" s="6">
         <v>0.27589999999999998</v>
       </c>
-      <c r="II18" s="8">
+      <c r="II18" s="6">
         <v>1E-4</v>
       </c>
-      <c r="IJ18" s="8">
+      <c r="IJ18" s="6">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="IK18" s="8">
-        <v>0</v>
-      </c>
-      <c r="IL18" s="8">
+      <c r="IK18" s="6">
+        <v>0</v>
+      </c>
+      <c r="IL18" s="6">
         <v>0.3463</v>
       </c>
-      <c r="IM18" s="8">
+      <c r="IM18" s="6">
         <v>0.22009999999999999</v>
       </c>
-      <c r="IN18" s="7">
+      <c r="IN18" s="5">
         <v>14.274762000000001</v>
       </c>
-      <c r="IO18" s="7" t="s">
+      <c r="IO18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="IP18" s="7"/>
+      <c r="IP18" s="5"/>
+    </row>
+    <row r="19" spans="1:250" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:250" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:250" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:250" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:250" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:250" x14ac:dyDescent="0.2">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:250" x14ac:dyDescent="0.2">
+      <c r="G25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A7:XFD7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" location="read-only-data-cache"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>